--- a/umit_files/umit_mat.xlsx
+++ b/umit_files/umit_mat.xlsx
@@ -21,10 +21,12 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,11 +262,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1eUX5jVJyWmfbQm52TIJ6dYf539BocadaeSh6fNKz22w/edit?usp=sharing"",""УМИТЫ!A:Z"")"),"Арифметика, арифметические выражения")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IMPORTRANGE(""https://docs.google.com/spreadsheets/d/1KhlcAFOdhmXdkKCREzUyloeKG_9smoJ8BQiuq6S6wkk/edit#gid=1086412777"",""УМИТЫ!A:Z"")"),"Арифметика, арифметические выражения")</f>
         <v>Арифметика, арифметические выражения</v>
       </c>
       <c r="B1" s="1"/>
@@ -2182,8 +2184,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),918.0)</f>
         <v>918</v>
       </c>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+      <c r="U19" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула числа размещений")</f>
+        <v>Формула числа размещений</v>
+      </c>
+      <c r="V19" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1018.0)</f>
+        <v>1018</v>
+      </c>
       <c r="W19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иррациональные неравенства с параметрами")</f>
         <v>Иррациональные неравенства с параметрами</v>

--- a/umit_files/umit_mat.xlsx
+++ b/umit_files/umit_mat.xlsx
@@ -2570,8 +2570,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),23.0)</f>
         <v>23</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="C24" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод рационализации")</f>
+        <v>Метод рационализации</v>
+      </c>
+      <c r="D24" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),123.0)</f>
+        <v>123</v>
+      </c>
       <c r="E24" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Квадратные неравенства")</f>
         <v>Квадратные неравенства</v>
@@ -2652,8 +2658,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),24.0)</f>
         <v>24</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="C25" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обобщенный метод интервалов")</f>
+        <v>Обобщенный метод интервалов</v>
+      </c>
+      <c r="D25" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),124.0)</f>
+        <v>124</v>
+      </c>
       <c r="E25" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дробно-рациональные неравенства")</f>
         <v>Дробно-рациональные неравенства</v>
@@ -2734,8 +2746,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),25.0)</f>
         <v>25</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="C26" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод интервалов")</f>
+        <v>Метод интервалов</v>
+      </c>
+      <c r="D26" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),125.0)</f>
+        <v>125</v>
+      </c>
       <c r="E26" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иррациональные неравенства")</f>
         <v>Иррациональные неравенства</v>
@@ -4936,8 +4954,14 @@
       <c r="Z60" s="1"/>
     </row>
     <row r="61">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
+      <c r="A61" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Среднее арифметическое ")</f>
+        <v>Среднее арифметическое </v>
+      </c>
+      <c r="B61" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),61.0)</f>
+        <v>61</v>
+      </c>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -5188,8 +5212,14 @@
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
+      <c r="Q66" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод объёмов")</f>
+        <v>Метод объёмов</v>
+      </c>
+      <c r="R66" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),865.0)</f>
+        <v>865</v>
+      </c>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
@@ -6402,8 +6432,14 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="1"/>
-      <c r="N102" s="1"/>
+      <c r="M102" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод площадей")</f>
+        <v>Метод площадей</v>
+      </c>
+      <c r="N102" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1301.0)</f>
+        <v>1301</v>
+      </c>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>

--- a/umit_files/umit_mat.xlsx
+++ b/umit_files/umit_mat.xlsx
@@ -321,8 +321,8 @@
       </c>
       <c r="V1" s="1"/>
       <c r="W1" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Финановая математика, задача с параметром, числа и их свойства")</f>
-        <v>Финановая математика, задача с параметром, числа и их свойства</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Числа и их свойства")</f>
+        <v>Числа и их свойства</v>
       </c>
       <c r="X1" s="1"/>
       <c r="Y1" s="1" t="str">
@@ -388,14 +388,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),601.0)</f>
         <v>601</v>
       </c>
-      <c r="O2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие вектора")</f>
-        <v>Понятие вектора</v>
-      </c>
-      <c r="P2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),701.0)</f>
-        <v>701</v>
-      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Аксиомы стереометрии")</f>
         <v>Аксиомы стереометрии</v>
@@ -421,12 +415,12 @@
         <v>1001</v>
       </c>
       <c r="W2" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие аннуитетного платежа")</f>
-        <v>Понятие аннуитетного платежа</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Числовые множества")</f>
+        <v>Числовые множества</v>
       </c>
       <c r="X2" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1101.0)</f>
-        <v>1101</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1141.0)</f>
+        <v>1141</v>
       </c>
       <c r="Y2" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь выполнять арифметические действия, сочетая устные и письменные приёмы")</f>
@@ -494,14 +488,8 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),602.0)</f>
         <v>602</v>
       </c>
-      <c r="O3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равенство векторов")</f>
-        <v>Равенство векторов</v>
-      </c>
-      <c r="P3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),702.0)</f>
-        <v>702</v>
-      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Параллельные прямые в пространстве")</f>
         <v>Параллельные прямые в пространстве</v>
@@ -519,20 +507,20 @@
         <v>902</v>
       </c>
       <c r="U3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение решать задачи с использованием свойств чисел")</f>
-        <v>Умение решать задачи с использованием свойств чисел</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение решать задачи с использованием преобразований алгебраических выражений")</f>
+        <v>Умение решать задачи с использованием преобразований алгебраических выражений</v>
       </c>
       <c r="V3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1002.0)</f>
-        <v>1002</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1004.0)</f>
+        <v>1004</v>
       </c>
       <c r="W3" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дифференцированный платеж")</f>
-        <v>Дифференцированный платеж</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Натуральные числа")</f>
+        <v>Натуральные числа</v>
       </c>
       <c r="X3" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1102.0)</f>
-        <v>1102</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1142.0)</f>
+        <v>1142</v>
       </c>
       <c r="Y3" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь находить значения корня натуральной степени, степени с рациональным показателем, логарифма")</f>
@@ -593,21 +581,15 @@
         <v>503</v>
       </c>
       <c r="M4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равенство геометрических фигур")</f>
-        <v>Равенство геометрических фигур</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Измерение отрезков, длина отрезка")</f>
+        <v>Измерение отрезков, длина отрезка</v>
       </c>
       <c r="N4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),603.0)</f>
-        <v>603</v>
-      </c>
-      <c r="O4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Откладывание вектора от данной точки")</f>
-        <v>Откладывание вектора от данной точки</v>
-      </c>
-      <c r="P4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),703.0)</f>
-        <v>703</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),604.0)</f>
+        <v>604</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Параллельность прямой и плоскости")</f>
         <v>Параллельность прямой и плоскости</v>
@@ -625,20 +607,20 @@
         <v>903</v>
       </c>
       <c r="U4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение решать задачи с использованием долей, частей, процентов")</f>
-        <v>Умение решать задачи с использованием долей, частей, процентов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение решать задачи с использованием свойств степеней, корней")</f>
+        <v>Умение решать задачи с использованием свойств степеней, корней</v>
       </c>
       <c r="V4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1003.0)</f>
-        <v>1003</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1005.0)</f>
+        <v>1005</v>
       </c>
       <c r="W4" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смешанные выплаты")</f>
-        <v>Смешанные выплаты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Целые числа")</f>
+        <v>Целые числа</v>
       </c>
       <c r="X4" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1103.0)</f>
-        <v>1103</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1143.0)</f>
+        <v>1143</v>
       </c>
       <c r="Y4" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь вычислять значения числовых и буквенных выражений, осуществляя необходимые подстановки и преобразования")</f>
@@ -699,21 +681,15 @@
         <v>504</v>
       </c>
       <c r="M5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Измерение отрезков, длина отрезка")</f>
-        <v>Измерение отрезков, длина отрезка</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Единицы измерения")</f>
+        <v>Единицы измерения</v>
       </c>
       <c r="N5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),604.0)</f>
-        <v>604</v>
-      </c>
-      <c r="O5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сумма двух, нескольких векторов. Законы сложения, правило параллелограмма")</f>
-        <v>Сумма двух, нескольких векторов. Законы сложения, правило параллелограмма</v>
-      </c>
-      <c r="P5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),704.0)</f>
-        <v>704</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),605.0)</f>
+        <v>605</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Скрещивающиеся прямые")</f>
         <v>Скрещивающиеся прямые</v>
@@ -731,20 +707,20 @@
         <v>904</v>
       </c>
       <c r="U5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение решать задачи с использованием преобразований алгебраических выражений")</f>
-        <v>Умение решать задачи с использованием преобразований алгебраических выражений</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на движение по прямой")</f>
+        <v>Задачи на движение по прямой</v>
       </c>
       <c r="V5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1004.0)</f>
-        <v>1004</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1006.0)</f>
+        <v>1006</v>
       </c>
       <c r="W5" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вклады")</f>
-        <v>Вклады</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рациональные числа")</f>
+        <v>Рациональные числа</v>
       </c>
       <c r="X5" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1104.0)</f>
-        <v>1104</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1144.0)</f>
+        <v>1144</v>
       </c>
       <c r="Y5" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь проводить по известным формулам и правилам преобразования буквенных выражений, включающих степени, радикалы, логарифмы и тригонометрические функции")</f>
@@ -805,21 +781,15 @@
         <v>505</v>
       </c>
       <c r="M6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Единицы измерения")</f>
-        <v>Единицы измерения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Измерение углов, градусная мера угла")</f>
+        <v>Измерение углов, градусная мера угла</v>
       </c>
       <c r="N6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),605.0)</f>
-        <v>605</v>
-      </c>
-      <c r="O6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вычитание векторов")</f>
-        <v>Вычитание векторов</v>
-      </c>
-      <c r="P6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),705.0)</f>
-        <v>705</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),606.0)</f>
+        <v>606</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Угол между прямыми")</f>
         <v>Угол между прямыми</v>
@@ -837,20 +807,20 @@
         <v>905</v>
       </c>
       <c r="U6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение решать задачи с использованием свойств степеней, корней")</f>
-        <v>Умение решать задачи с использованием свойств степеней, корней</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на движение по воде")</f>
+        <v>Задачи на движение по воде</v>
       </c>
       <c r="V6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1005.0)</f>
-        <v>1005</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1007.0)</f>
+        <v>1007</v>
       </c>
       <c r="W6" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Кредиты")</f>
-        <v>Кредиты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие делимости")</f>
+        <v>Понятие делимости</v>
       </c>
       <c r="X6" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1105.0)</f>
-        <v>1105</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1145.0)</f>
+        <v>1145</v>
       </c>
       <c r="Y6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сформированность понятийного аппарата по основным разделам курса математики")</f>
@@ -903,29 +873,23 @@
         <v>406</v>
       </c>
       <c r="K7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функция у = sin х ее свойства и график")</f>
-        <v>Функция у = sin х ее свойства и график</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синус и косинус суммы и разности аргументов")</f>
+        <v>Синус и косинус суммы и разности аргументов</v>
       </c>
       <c r="L7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),506.0)</f>
-        <v>506</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),511.0)</f>
+        <v>511</v>
       </c>
       <c r="M7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Измерение углов, градусная мера угла")</f>
-        <v>Измерение углов, градусная мера угла</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смежные углы")</f>
+        <v>Смежные углы</v>
       </c>
       <c r="N7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),606.0)</f>
-        <v>606</v>
-      </c>
-      <c r="O7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Произведение вектора на число")</f>
-        <v>Произведение вектора на число</v>
-      </c>
-      <c r="P7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),706.0)</f>
-        <v>706</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),607.0)</f>
+        <v>607</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Параллельные плоскости, свойства")</f>
         <v>Параллельные плоскости, свойства</v>
@@ -943,20 +907,20 @@
         <v>906</v>
       </c>
       <c r="U7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на движение по прямой")</f>
-        <v>Задачи на движение по прямой</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на совместную работу")</f>
+        <v>Задачи на совместную работу</v>
       </c>
       <c r="V7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1006.0)</f>
-        <v>1006</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1008.0)</f>
+        <v>1008</v>
       </c>
       <c r="W7" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на оптимальный выбор")</f>
-        <v>Задачи на оптимальный выбор</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки делимости чисел")</f>
+        <v>Признаки делимости чисел</v>
       </c>
       <c r="X7" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1106.0)</f>
-        <v>1106</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1146.0)</f>
+        <v>1146</v>
       </c>
       <c r="Y7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Знание основных теорем, формул и умение их применять")</f>
@@ -1009,29 +973,23 @@
         <v>407</v>
       </c>
       <c r="K8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функция у = cos х, ее свойства и график")</f>
-        <v>Функция у = cos х, ее свойства и график</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тангенс суммы и разности аргументов")</f>
+        <v>Тангенс суммы и разности аргументов</v>
       </c>
       <c r="L8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),507.0)</f>
-        <v>507</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),512.0)</f>
+        <v>512</v>
       </c>
       <c r="M8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смежные углы")</f>
-        <v>Смежные углы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вертикальные углы")</f>
+        <v>Вертикальные углы</v>
       </c>
       <c r="N8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),607.0)</f>
-        <v>607</v>
-      </c>
-      <c r="O8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение векторов и координат к решению задач")</f>
-        <v>Применение векторов и координат к решению задач</v>
-      </c>
-      <c r="P8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),707.0)</f>
-        <v>707</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),608.0)</f>
+        <v>608</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="Q8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перпендикулярность прямых и плоскостей")</f>
         <v>Перпендикулярность прямых и плоскостей</v>
@@ -1049,20 +1007,20 @@
         <v>907</v>
       </c>
       <c r="U8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на движение по воде")</f>
-        <v>Задачи на движение по воде</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на проценты")</f>
+        <v>Задачи на проценты</v>
       </c>
       <c r="V8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1007.0)</f>
-        <v>1007</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1009.0)</f>
+        <v>1009</v>
       </c>
       <c r="W8" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смешанная схема выплат")</f>
-        <v>Смешанная схема выплат</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение четности")</f>
+        <v>Определение четности</v>
       </c>
       <c r="X8" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1107.0)</f>
-        <v>1107</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1147.0)</f>
+        <v>1147</v>
       </c>
       <c r="Y8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение доказывать теоремы и находить нестандартные способы решения задач")</f>
@@ -1115,29 +1073,23 @@
         <v>408</v>
       </c>
       <c r="K9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Периодичность функций у = sin х у = cos x")</f>
-        <v>Периодичность функций у = sin х у = cos x</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы двойного аргумента")</f>
+        <v>Формулы двойного аргумента</v>
       </c>
       <c r="L9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),508.0)</f>
-        <v>508</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),513.0)</f>
+        <v>513</v>
       </c>
       <c r="M9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вертикальные углы")</f>
-        <v>Вертикальные углы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перпендикулярные прямые")</f>
+        <v>Перпендикулярные прямые</v>
       </c>
       <c r="N9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),608.0)</f>
-        <v>608</v>
-      </c>
-      <c r="O9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение вектора по двум неколлинеарным векторам")</f>
-        <v>Разложение вектора по двум неколлинеарным векторам</v>
-      </c>
-      <c r="P9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),708.0)</f>
-        <v>708</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),609.0)</f>
+        <v>609</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Расстояние от точки до плоскости")</f>
         <v>Расстояние от точки до плоскости</v>
@@ -1155,20 +1107,20 @@
         <v>908</v>
       </c>
       <c r="U9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на совместную работу")</f>
-        <v>Задачи на совместную работу</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на смеси и сплавы")</f>
+        <v>Задачи на смеси и сплавы</v>
       </c>
       <c r="V9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1008.0)</f>
-        <v>1008</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1011.0)</f>
+        <v>1011</v>
       </c>
       <c r="W9" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сложный процент")</f>
-        <v>Сложный процент</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Утверждения о четности чисел")</f>
+        <v>Утверждения о четности чисел</v>
       </c>
       <c r="X9" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1108.0)</f>
-        <v>1108</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1148.0)</f>
+        <v>1148</v>
       </c>
       <c r="Y9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь решать рациональные, иррациональные, показательные, тригонометрические и логарифмические уравнения, их системы")</f>
@@ -1221,29 +1173,23 @@
         <v>409</v>
       </c>
       <c r="K10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преобразования графиков тригонометрических функций")</f>
-        <v>Преобразования графиков тригонометрических функций</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преобразование сумм тригонометрических функций в произведения")</f>
+        <v>Преобразование сумм тригонометрических функций в произведения</v>
       </c>
       <c r="L10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),509.0)</f>
-        <v>509</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),514.0)</f>
+        <v>514</v>
       </c>
       <c r="M10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перпендикулярные прямые")</f>
-        <v>Перпендикулярные прямые</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие треугольника")</f>
+        <v>Понятие треугольника</v>
       </c>
       <c r="N10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),609.0)</f>
-        <v>609</v>
-      </c>
-      <c r="O10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Координаты вектора")</f>
-        <v>Координаты вектора</v>
-      </c>
-      <c r="P10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),709.0)</f>
-        <v>709</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),610.0)</f>
+        <v>610</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о трех перпендикулярах")</f>
         <v>Теорема о трех перпендикулярах</v>
@@ -1253,28 +1199,28 @@
         <v>809</v>
       </c>
       <c r="S10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Поочередный и одновременный выбор")</f>
-        <v>Поочередный и одновременный выбор</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула числа сочетаний")</f>
+        <v>Формула числа сочетаний</v>
       </c>
       <c r="T10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),909.0)</f>
-        <v>909</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),910.0)</f>
+        <v>910</v>
       </c>
       <c r="U10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на проценты")</f>
-        <v>Задачи на проценты</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на среднюю скорость")</f>
+        <v>Задачи на среднюю скорость</v>
       </c>
       <c r="V10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1009.0)</f>
-        <v>1009</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1012.0)</f>
+        <v>1012</v>
       </c>
       <c r="W10" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Что такое параметр")</f>
-        <v>Что такое параметр</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Деление с остатком")</f>
+        <v>Деление с остатком</v>
       </c>
       <c r="X10" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1109.0)</f>
-        <v>1109</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1149.0)</f>
+        <v>1149</v>
       </c>
       <c r="Y10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь решать уравнения, простейшие системы уравнений, используя свойства функций и их графиков")</f>
@@ -1327,29 +1273,23 @@
         <v>410</v>
       </c>
       <c r="K11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Функции у = tg х у = ctg x их свойства и графики")</f>
-        <v>Функции у = tg х у = ctg x их свойства и графики</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преобразование произведений тригонометрических функций в суммы")</f>
+        <v>Преобразование произведений тригонометрических функций в суммы</v>
       </c>
       <c r="L11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),510.0)</f>
-        <v>510</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),515.0)</f>
+        <v>515</v>
       </c>
       <c r="M11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие треугольника")</f>
-        <v>Понятие треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Медиана треугольника")</f>
+        <v>Медиана треугольника</v>
       </c>
       <c r="N11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),610.0)</f>
-        <v>610</v>
-      </c>
-      <c r="O11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь между координатами вектора и координатами его начала и конца")</f>
-        <v>Связь между координатами вектора и координатами его начала и конца</v>
-      </c>
-      <c r="P11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),710.0)</f>
-        <v>710</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),611.0)</f>
+        <v>611</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Угол между прямой и плоскостью")</f>
         <v>Угол между прямой и плоскостью</v>
@@ -1359,28 +1299,28 @@
         <v>810</v>
       </c>
       <c r="S11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула числа сочетаний")</f>
-        <v>Формула числа сочетаний</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула числа перестановок")</f>
+        <v>Формула числа перестановок</v>
       </c>
       <c r="T11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),910.0)</f>
-        <v>910</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),911.0)</f>
+        <v>911</v>
       </c>
       <c r="U11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задача на нахождение скорости и ускорения тела")</f>
-        <v>Задача на нахождение скорости и ускорения тела</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Скорость сближения и скорость отдаления")</f>
+        <v>Скорость сближения и скорость отдаления</v>
       </c>
       <c r="V11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1010.0)</f>
-        <v>1010</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1013.0)</f>
+        <v>1013</v>
       </c>
       <c r="W11" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Линейные уравнения и приводимые к ним уравнения с параметрами")</f>
-        <v>Линейные уравнения и приводимые к ним уравнения с параметрами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простое число")</f>
+        <v>Простое число</v>
       </c>
       <c r="X11" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1110.0)</f>
-        <v>1110</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
+        <v>1150</v>
       </c>
       <c r="Y11" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь использовать для приближенного решения уравнений и неравенств графический метод")</f>
@@ -1433,29 +1373,23 @@
         <v>411</v>
       </c>
       <c r="K12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синус и косинус суммы и разности аргументов")</f>
-        <v>Синус и косинус суммы и разности аргументов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы понижения степени")</f>
+        <v>Формулы понижения степени</v>
       </c>
       <c r="L12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),511.0)</f>
-        <v>511</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),516.0)</f>
+        <v>516</v>
       </c>
       <c r="M12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Медиана треугольника")</f>
-        <v>Медиана треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Биссектриса треугольника")</f>
+        <v>Биссектриса треугольника</v>
       </c>
       <c r="N12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),611.0)</f>
-        <v>611</v>
-      </c>
-      <c r="O12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы для вычисления координат точки")</f>
-        <v>Формулы для вычисления координат точки</v>
-      </c>
-      <c r="P12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),711.0)</f>
-        <v>711</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),612.0)</f>
+        <v>612</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Двугранный угол")</f>
         <v>Двугранный угол</v>
@@ -1465,28 +1399,28 @@
         <v>811</v>
       </c>
       <c r="S12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула числа перестановок")</f>
-        <v>Формула числа перестановок</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бином Ньютона")</f>
+        <v>Бином Ньютона</v>
       </c>
       <c r="T12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),911.0)</f>
-        <v>911</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),912.0)</f>
+        <v>912</v>
       </c>
       <c r="U12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на смеси и сплавы")</f>
-        <v>Задачи на смеси и сплавы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на относительную скорость")</f>
+        <v>Задачи на относительную скорость</v>
       </c>
       <c r="V12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1011.0)</f>
-        <v>1011</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1014.0)</f>
+        <v>1014</v>
       </c>
       <c r="W12" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Квадратичные и сводимые к ним уравнения с параметрами")</f>
-        <v>Квадратичные и сводимые к ним уравнения с параметрами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составное число")</f>
+        <v>Составное число</v>
       </c>
       <c r="X12" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1111.0)</f>
-        <v>1111</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1151.0)</f>
+        <v>1151</v>
       </c>
       <c r="Y12" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь решать рациональные, показательные и логарифмические неравенства, их системы")</f>
@@ -1539,29 +1473,23 @@
         <v>412</v>
       </c>
       <c r="K13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тангенс суммы и разности аргументов")</f>
-        <v>Тангенс суммы и разности аргументов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение свойств тригонометрических функций к преобразованию выражений")</f>
+        <v>Применение свойств тригонометрических функций к преобразованию выражений</v>
       </c>
       <c r="L13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),512.0)</f>
-        <v>512</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),517.0)</f>
+        <v>517</v>
       </c>
       <c r="M13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Биссектриса треугольника")</f>
-        <v>Биссектриса треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Высота треугольника")</f>
+        <v>Высота треугольника</v>
       </c>
       <c r="N13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),612.0)</f>
-        <v>612</v>
-      </c>
-      <c r="O13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Угол между векторами")</f>
-        <v>Угол между векторами</v>
-      </c>
-      <c r="P13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),712.0)</f>
-        <v>712</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),613.0)</f>
+        <v>613</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перпендикулярность двух плоскостей")</f>
         <v>Перпендикулярность двух плоскостей</v>
@@ -1571,28 +1499,28 @@
         <v>812</v>
       </c>
       <c r="S13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Бином Ньютона")</f>
-        <v>Бином Ньютона</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Биноминальное распределение")</f>
+        <v>Биноминальное распределение</v>
       </c>
       <c r="T13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),912.0)</f>
-        <v>912</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),913.0)</f>
+        <v>913</v>
       </c>
       <c r="U13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на среднюю скорость")</f>
-        <v>Задачи на среднюю скорость</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на прогрессии")</f>
+        <v>Задачи на прогрессии</v>
       </c>
       <c r="V13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1012.0)</f>
-        <v>1012</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1015.0)</f>
+        <v>1015</v>
       </c>
       <c r="W13" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения с параметрами, содержащие модуль")</f>
-        <v>Уравнения с параметрами, содержащие модуль</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основная теорема арифметики")</f>
+        <v>Основная теорема арифметики</v>
       </c>
       <c r="X13" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1112.0)</f>
-        <v>1112</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1152.0)</f>
+        <v>1152</v>
       </c>
       <c r="Y13" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сформированность умений моделировать реальные ситуации, исследовать построенные модели, интерпретировать полученный результат")</f>
@@ -1645,29 +1573,23 @@
         <v>413</v>
       </c>
       <c r="K14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы двойного аргумента")</f>
-        <v>Формулы двойного аргумента</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простейшие тригонометрические уравнения")</f>
+        <v>Простейшие тригонометрические уравнения</v>
       </c>
       <c r="L14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),513.0)</f>
-        <v>513</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),518.0)</f>
+        <v>518</v>
       </c>
       <c r="M14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Высота треугольника")</f>
-        <v>Высота треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равнобедренный треугольник")</f>
+        <v>Равнобедренный треугольник</v>
       </c>
       <c r="N14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),613.0)</f>
-        <v>613</v>
-      </c>
-      <c r="O14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Скалярное произведение векторов, свойства")</f>
-        <v>Скалярное произведение векторов, свойства</v>
-      </c>
-      <c r="P14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),713.0)</f>
-        <v>713</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),615.0)</f>
+        <v>615</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие куба")</f>
         <v>Понятие куба</v>
@@ -1677,28 +1599,28 @@
         <v>813</v>
       </c>
       <c r="S14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Биноминальное распределение")</f>
-        <v>Биноминальное распределение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства биноминального распределения")</f>
+        <v>Свойства биноминального распределения</v>
       </c>
       <c r="T14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),913.0)</f>
-        <v>913</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),914.0)</f>
+        <v>914</v>
       </c>
       <c r="U14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Скорость сближения и скорость отдаления")</f>
-        <v>Скорость сближения и скорость отдаления</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на круговое движение")</f>
+        <v>Задачи на круговое движение</v>
       </c>
       <c r="V14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1013.0)</f>
-        <v>1013</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1016.0)</f>
+        <v>1016</v>
       </c>
       <c r="W14" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Системы уравнений с параметрами")</f>
-        <v>Системы уравнений с параметрами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Каноническое разложение")</f>
+        <v>Каноническое разложение</v>
       </c>
       <c r="X14" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1113.0)</f>
-        <v>1113</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1153.0)</f>
+        <v>1153</v>
       </c>
       <c r="Y14" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь определять значение функции по значению аргумента при различных способах задания функции")</f>
@@ -1751,29 +1673,23 @@
         <v>414</v>
       </c>
       <c r="K15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преобразование сумм тригонометрических функций в произведения")</f>
-        <v>Преобразование сумм тригонометрических функций в произведения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы решения тригонометрических уравнений")</f>
+        <v>Способы решения тригонометрических уравнений</v>
       </c>
       <c r="L15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),514.0)</f>
-        <v>514</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),519.0)</f>
+        <v>519</v>
       </c>
       <c r="M15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перпендикуляр к прямой")</f>
-        <v>Перпендикуляр к прямой</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства равнобедренного треугольника")</f>
+        <v>Свойства равнобедренного треугольника</v>
       </c>
       <c r="N15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),614.0)</f>
-        <v>614</v>
-      </c>
-      <c r="O15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Модуль вектора")</f>
-        <v>Модуль вектора</v>
-      </c>
-      <c r="P15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),730.0)</f>
-        <v>730</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),616.0)</f>
+        <v>616</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства куба")</f>
         <v>Свойства куба</v>
@@ -1783,28 +1699,28 @@
         <v>814</v>
       </c>
       <c r="S15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства биноминального распределения")</f>
-        <v>Свойства биноминального распределения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Табличное представление данных в статистике")</f>
+        <v>Табличное представление данных в статистике</v>
       </c>
       <c r="T15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),914.0)</f>
-        <v>914</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),915.0)</f>
+        <v>915</v>
       </c>
       <c r="U15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на относительную скорость")</f>
-        <v>Задачи на относительную скорость</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула числа размещений")</f>
+        <v>Формула числа размещений</v>
       </c>
       <c r="V15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1014.0)</f>
-        <v>1014</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1018.0)</f>
+        <v>1018</v>
       </c>
       <c r="W15" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иррациональные уравнения с параметрами")</f>
-        <v>Иррациональные уравнения с параметрами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Делитель")</f>
+        <v>Делитель</v>
       </c>
       <c r="X15" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1114.0)</f>
-        <v>1114</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1154.0)</f>
+        <v>1154</v>
       </c>
       <c r="Y15" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь описывать по графику поведение и свойства функции,")</f>
@@ -1857,29 +1773,23 @@
         <v>415</v>
       </c>
       <c r="K16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преобразование произведений тригонометрических функций в суммы")</f>
-        <v>Преобразование произведений тригонометрических функций в суммы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение формул для преобразования тригонометрического уравнения (основные тригонометрические тождества, формулы приведения, двойного аргумента, понижение порядка)")</f>
+        <v>Применение формул для преобразования тригонометрического уравнения (основные тригонометрические тождества, формулы приведения, двойного аргумента, понижение порядка)</v>
       </c>
       <c r="L16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),515.0)</f>
-        <v>515</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),520.0)</f>
+        <v>520</v>
       </c>
       <c r="M16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равнобедренный треугольник")</f>
-        <v>Равнобедренный треугольник</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки равенства треугольников")</f>
+        <v>Признаки равенства треугольников</v>
       </c>
       <c r="N16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),615.0)</f>
-        <v>615</v>
-      </c>
-      <c r="O16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Векторы и координаты в пространстве")</f>
-        <v>Векторы и координаты в пространстве</v>
-      </c>
-      <c r="P16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),732.0)</f>
-        <v>732</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),617.0)</f>
+        <v>617</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объем куба")</f>
         <v>Объем куба</v>
@@ -1889,28 +1799,22 @@
         <v>815</v>
       </c>
       <c r="S16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Табличное представление данных в статистике")</f>
-        <v>Табличное представление данных в статистике</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графическое представление данных в статистике")</f>
+        <v>Графическое представление данных в статистике</v>
       </c>
       <c r="T16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),915.0)</f>
-        <v>915</v>
-      </c>
-      <c r="U16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на прогрессии")</f>
-        <v>Задачи на прогрессии</v>
-      </c>
-      <c r="V16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1015.0)</f>
-        <v>1015</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),916.0)</f>
+        <v>916</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
       <c r="W16" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Линейные неравенства и неравенства, приводимые к линейным с параметром")</f>
-        <v>Линейные неравенства и неравенства, приводимые к линейным с параметром</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимно простые числа")</f>
+        <v>Взаимно простые числа</v>
       </c>
       <c r="X16" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1115.0)</f>
-        <v>1115</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1155.0)</f>
+        <v>1155</v>
       </c>
       <c r="Y16" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь находить по графику функции наибольшее и наименьшее значения")</f>
@@ -1963,20 +1867,20 @@
         <v>416</v>
       </c>
       <c r="K17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы понижения степени")</f>
-        <v>Формулы понижения степени</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения, приводящиеся к квадратным")</f>
+        <v>Уравнения, приводящиеся к квадратным</v>
       </c>
       <c r="L17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),516.0)</f>
-        <v>516</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),521.0)</f>
+        <v>521</v>
       </c>
       <c r="M17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства равнобедренного треугольника")</f>
-        <v>Свойства равнобедренного треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равносторонний треугольник")</f>
+        <v>Равносторонний треугольник</v>
       </c>
       <c r="N17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),616.0)</f>
-        <v>616</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),618.0)</f>
+        <v>618</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -1989,28 +1893,22 @@
         <v>816</v>
       </c>
       <c r="S17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графическое представление данных в статистике")</f>
-        <v>Графическое представление данных в статистике</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Числовые характеристики рядов данных")</f>
+        <v>Числовые характеристики рядов данных</v>
       </c>
       <c r="T17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),916.0)</f>
-        <v>916</v>
-      </c>
-      <c r="U17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на круговое движение")</f>
-        <v>Задачи на круговое движение</v>
-      </c>
-      <c r="V17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1016.0)</f>
-        <v>1016</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),917.0)</f>
+        <v>917</v>
+      </c>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
       <c r="W17" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Системы неравенств с параметром")</f>
-        <v>Системы неравенств с параметром</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства взаимно простых чисел")</f>
+        <v>Свойства взаимно простых чисел</v>
       </c>
       <c r="X17" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1116.0)</f>
-        <v>1116</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1156.0)</f>
+        <v>1156</v>
       </c>
       <c r="Y17" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь строить графики изученных функций")</f>
@@ -2057,20 +1955,20 @@
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение свойств тригонометрических функций к преобразованию выражений")</f>
-        <v>Применение свойств тригонометрических функций к преобразованию выражений</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однородные тригонометрические уравнения первой и второй степени")</f>
+        <v>Однородные тригонометрические уравнения первой и второй степени</v>
       </c>
       <c r="L18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),517.0)</f>
-        <v>517</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),522.0)</f>
+        <v>522</v>
       </c>
       <c r="M18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки равенства треугольников")</f>
-        <v>Признаки равенства треугольников</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окружность")</f>
+        <v>Окружность</v>
       </c>
       <c r="N18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),617.0)</f>
-        <v>617</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),619.0)</f>
+        <v>619</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
@@ -2083,28 +1981,22 @@
         <v>817</v>
       </c>
       <c r="S18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Числовые характеристики рядов данных")</f>
-        <v>Числовые характеристики рядов данных</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Среднее")</f>
+        <v>Среднее</v>
       </c>
       <c r="T18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),917.0)</f>
-        <v>917</v>
-      </c>
-      <c r="U18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на смекалку")</f>
-        <v>Задачи на смекалку</v>
-      </c>
-      <c r="V18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1017.0)</f>
-        <v>1017</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),918.0)</f>
+        <v>918</v>
+      </c>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
       <c r="W18" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Квадратичные неравенства с параметрами")</f>
-        <v>Квадратичные неравенства с параметрами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Числовая последовательность")</f>
+        <v>Числовая последовательность</v>
       </c>
       <c r="X18" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1117.0)</f>
-        <v>1117</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1157.0)</f>
+        <v>1157</v>
       </c>
       <c r="Y18" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь вычислять производные и первообразные элементарных функций")</f>
@@ -2151,20 +2043,20 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простейшие тригонометрические уравнения")</f>
-        <v>Простейшие тригонометрические уравнения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тригонометрические уравнения с разложением на множители")</f>
+        <v>Тригонометрические уравнения с разложением на множители</v>
       </c>
       <c r="L19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),518.0)</f>
-        <v>518</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),523.0)</f>
+        <v>523</v>
       </c>
       <c r="M19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Равносторонний треугольник")</f>
-        <v>Равносторонний треугольник</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение параллельных прямых")</f>
+        <v>Определение параллельных прямых</v>
       </c>
       <c r="N19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),618.0)</f>
-        <v>618</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),620.0)</f>
+        <v>620</v>
       </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
@@ -2177,28 +2069,22 @@
         <v>818</v>
       </c>
       <c r="S19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Среднее")</f>
-        <v>Среднее</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наибольшее и наименьшее значение")</f>
+        <v>Наибольшее и наименьшее значение</v>
       </c>
       <c r="T19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),918.0)</f>
-        <v>918</v>
-      </c>
-      <c r="U19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула числа размещений")</f>
-        <v>Формула числа размещений</v>
-      </c>
-      <c r="V19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1018.0)</f>
-        <v>1018</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),919.0)</f>
+        <v>919</v>
+      </c>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
       <c r="W19" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Иррациональные неравенства с параметрами")</f>
-        <v>Иррациональные неравенства с параметрами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Арифметическая прогрессия")</f>
+        <v>Арифметическая прогрессия</v>
       </c>
       <c r="X19" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1118.0)</f>
-        <v>1118</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1158.0)</f>
+        <v>1158</v>
       </c>
       <c r="Y19" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь исследовать в простейших случаях функции на монотонность, находить наибольшее и наименьшее значения функции")</f>
@@ -2245,20 +2131,20 @@
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Способы решения тригонометрических уравнений")</f>
-        <v>Способы решения тригонометрических уравнений</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение ОДЗ в тригонометрических уравнениях")</f>
+        <v>Нахождение ОДЗ в тригонометрических уравнениях</v>
       </c>
       <c r="L20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),519.0)</f>
-        <v>519</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),524.0)</f>
+        <v>524</v>
       </c>
       <c r="M20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окружность")</f>
-        <v>Окружность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки параллельности двух прямых")</f>
+        <v>Признаки параллельности двух прямых</v>
       </c>
       <c r="N20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),619.0)</f>
-        <v>619</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),621.0)</f>
+        <v>621</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2271,22 +2157,22 @@
         <v>819</v>
       </c>
       <c r="S20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Наибольшее и наименьшее значение")</f>
-        <v>Наибольшее и наименьшее значение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Размах")</f>
+        <v>Размах</v>
       </c>
       <c r="T20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),919.0)</f>
-        <v>919</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),920.0)</f>
+        <v>920</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения и неравенства с параметрами, содержащие логарифмы")</f>
-        <v>Уравнения и неравенства с параметрами, содержащие логарифмы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства арифметической прогрессии")</f>
+        <v>Свойства арифметической прогрессии</v>
       </c>
       <c r="X20" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1119.0)</f>
-        <v>1119</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1159.0)</f>
+        <v>1159</v>
       </c>
       <c r="Y20" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь решать планиметрические задачи на нахождение геометрических величин (длин, углов,площадей)")</f>
@@ -2333,20 +2219,20 @@
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение формул для преобразования тригонометрического уравнения (основные тригонометрические тождества, формулы приведения, двойного аргумента, понижение порядка)")</f>
-        <v>Применение формул для преобразования тригонометрического уравнения (основные тригонометрические тождества, формулы приведения, двойного аргумента, понижение порядка)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Комбинированные тригонометрические уравнения")</f>
+        <v>Комбинированные тригонометрические уравнения</v>
       </c>
       <c r="L21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),520.0)</f>
-        <v>520</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),525.0)</f>
+        <v>525</v>
       </c>
       <c r="M21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение параллельных прямых")</f>
-        <v>Определение параллельных прямых</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Аксиома параллельных прямых")</f>
+        <v>Аксиома параллельных прямых</v>
       </c>
       <c r="N21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),620.0)</f>
-        <v>620</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),622.0)</f>
+        <v>622</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -2359,22 +2245,22 @@
         <v>820</v>
       </c>
       <c r="S21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Размах")</f>
-        <v>Размах</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисперсия")</f>
+        <v>Дисперсия</v>
       </c>
       <c r="T21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),920.0)</f>
-        <v>920</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),921.0)</f>
+        <v>921</v>
       </c>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тригонометрические уравнения, неравенства и системы уравнений с параметрами")</f>
-        <v>Тригонометрические уравнения, неравенства и системы уравнений с параметрами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Геометрическая прогрессия")</f>
+        <v>Геометрическая прогрессия</v>
       </c>
       <c r="X21" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1120.0)</f>
-        <v>1120</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1160.0)</f>
+        <v>1160</v>
       </c>
       <c r="Y21" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь решать простейшие стереометрические задачи на нахождение геометрических величин (длин, углов, площадей, объёмов)")</f>
@@ -2421,20 +2307,20 @@
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения, приводящиеся к квадратным")</f>
-        <v>Уравнения, приводящиеся к квадратным</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбор корней (с помощью окружности, метод перебора)")</f>
+        <v>Отбор корней (с помощью окружности, метод перебора)</v>
       </c>
       <c r="L22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),521.0)</f>
-        <v>521</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),526.0)</f>
+        <v>526</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки параллельности двух прямых")</f>
-        <v>Признаки параллельности двух прямых</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теоремы об углах, образованных двумя параллельными прямыми и секущей")</f>
+        <v>Теоремы об углах, образованных двумя параллельными прямыми и секущей</v>
       </c>
       <c r="N22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),621.0)</f>
-        <v>621</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),623.0)</f>
+        <v>623</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2447,22 +2333,22 @@
         <v>821</v>
       </c>
       <c r="S22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дисперсия")</f>
-        <v>Дисперсия</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Стандарнное отклонение")</f>
+        <v>Стандарнное отклонение</v>
       </c>
       <c r="T22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),921.0)</f>
-        <v>921</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),922.0)</f>
+        <v>922</v>
       </c>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Применение свойств функций к решению уравнений и неравенств с параметром")</f>
-        <v>Применение свойств функций к решению уравнений и неравенств с параметром</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойство геометрической прогрессии")</f>
+        <v>Свойство геометрической прогрессии</v>
       </c>
       <c r="X22" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1121.0)</f>
-        <v>1121</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1161.0)</f>
+        <v>1161</v>
       </c>
       <c r="Y22" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь использовать при решении стереометрических задач планиметрические факты и методы")</f>
@@ -2509,20 +2395,20 @@
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Однородные тригонометрические уравнения первой и второй степени")</f>
-        <v>Однородные тригонометрические уравнения первой и второй степени</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение значений углов на тригонометрической окружности")</f>
+        <v>Определение значений углов на тригонометрической окружности</v>
       </c>
       <c r="L23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),522.0)</f>
-        <v>522</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),529.0)</f>
+        <v>529</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Аксиома параллельных прямых")</f>
-        <v>Аксиома параллельных прямых</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о сумме углов треугольника")</f>
+        <v>Теорема о сумме углов треугольника</v>
       </c>
       <c r="N23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),622.0)</f>
-        <v>622</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),625.0)</f>
+        <v>625</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2535,22 +2421,22 @@
         <v>822</v>
       </c>
       <c r="S23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Стандарнное отклонение")</f>
-        <v>Стандарнное отклонение</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вычисление частот")</f>
+        <v>Вычисление частот</v>
       </c>
       <c r="T23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),922.0)</f>
-        <v>922</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),924.0)</f>
+        <v>924</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод областей")</f>
-        <v>Метод областей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"НОД")</f>
+        <v>НОД</v>
       </c>
       <c r="X23" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1122.0)</f>
-        <v>1122</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1162.0)</f>
+        <v>1162</v>
       </c>
       <c r="Y23" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь определять координаты точки;")</f>
@@ -2597,20 +2483,20 @@
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тригонометрические уравнения с разложением на множители")</f>
-        <v>Тригонометрические уравнения с разложением на множители</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение значений синуса и косинуса на тригонометрической окружности")</f>
+        <v>Определение значений синуса и косинуса на тригонометрической окружности</v>
       </c>
       <c r="L24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),523.0)</f>
-        <v>523</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),530.0)</f>
+        <v>530</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теоремы об углах, образованных двумя параллельными прямыми и секущей")</f>
-        <v>Теоремы об углах, образованных двумя параллельными прямыми и секущей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Остроугольный, прямоугольный и тупоугольный треугольники")</f>
+        <v>Остроугольный, прямоугольный и тупоугольный треугольники</v>
       </c>
       <c r="N24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),623.0)</f>
-        <v>623</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),626.0)</f>
+        <v>626</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
@@ -2623,22 +2509,22 @@
         <v>823</v>
       </c>
       <c r="S24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вычислиение вероятностей в опытах с равновозможными элементарными исходами")</f>
-        <v>Вычислиение вероятностей в опытах с равновозможными элементарными исходами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вычисление вероятностей независимых событий")</f>
+        <v>Вычисление вероятностей независимых событий</v>
       </c>
       <c r="T24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),923.0)</f>
-        <v>923</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),926.0)</f>
+        <v>926</v>
       </c>
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Преобразование графиков для решения задач с параметром")</f>
-        <v>Преобразование графиков для решения задач с параметром</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"НОК")</f>
+        <v>НОК</v>
       </c>
       <c r="X24" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1123.0)</f>
-        <v>1123</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1163.0)</f>
+        <v>1163</v>
       </c>
       <c r="Y24" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь проводить операции над векторами, вычислять длину и координаты вектора, угол между векторами")</f>
@@ -2685,20 +2571,20 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение ОДЗ в тригонометрических уравнениях")</f>
-        <v>Нахождение ОДЗ в тригонометрических уравнениях</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обратные тригонометрические функции: определение")</f>
+        <v>Обратные тригонометрические функции: определение</v>
       </c>
       <c r="L25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),524.0)</f>
-        <v>524</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),531.0)</f>
+        <v>531</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Углы с соответственно параллельными или перпендикулярными сторонами")</f>
-        <v>Углы с соответственно параллельными или перпендикулярными сторонами</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямоугольные треугольники")</f>
+        <v>Прямоугольные треугольники</v>
       </c>
       <c r="N25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),624.0)</f>
-        <v>624</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),629.0)</f>
+        <v>629</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
@@ -2711,22 +2597,22 @@
         <v>824</v>
       </c>
       <c r="S25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вычисление частот")</f>
-        <v>Вычисление частот</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Использование формулы сложения вероятностей")</f>
+        <v>Использование формулы сложения вероятностей</v>
       </c>
       <c r="T25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),924.0)</f>
-        <v>924</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),927.0)</f>
+        <v>927</v>
       </c>
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод упрощающего значения")</f>
-        <v>Метод упрощающего значения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение числа на десятки, сотни и т.д.")</f>
+        <v>Разложение числа на десятки, сотни и т.д.</v>
       </c>
       <c r="X25" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1124.0)</f>
-        <v>1124</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1164.0)</f>
+        <v>1164</v>
       </c>
       <c r="Y25" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь моделировать реальные ситуации на языке алгебры,")</f>
@@ -2772,21 +2658,15 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Комбинированные тригонометрические уравнения")</f>
-        <v>Комбинированные тригонометрические уравнения</v>
-      </c>
-      <c r="L26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),525.0)</f>
-        <v>525</v>
-      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
       <c r="M26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о сумме углов треугольника")</f>
-        <v>Теорема о сумме углов треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Некоторые свойства прямоугольных треугольников")</f>
+        <v>Некоторые свойства прямоугольных треугольников</v>
       </c>
       <c r="N26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),625.0)</f>
-        <v>625</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),630.0)</f>
+        <v>630</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2799,23 +2679,17 @@
         <v>825</v>
       </c>
       <c r="S26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вычисление вероятностей событий")</f>
-        <v>Вычисление вероятностей событий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Использование диаграмм Эйлера")</f>
+        <v>Использование диаграмм Эйлера</v>
       </c>
       <c r="T26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),925.0)</f>
-        <v>925</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),928.0)</f>
+        <v>928</v>
       </c>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Параметр как переменная")</f>
-        <v>Параметр как переменная</v>
-      </c>
-      <c r="X26" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1125.0)</f>
-        <v>1125</v>
-      </c>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
       <c r="Y26" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь составлять уравнения и неравенства по условию задачи")</f>
         <v>Уметь составлять уравнения и неравенства по условию задачи</v>
@@ -2854,21 +2728,15 @@
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-      <c r="K27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отбор корней (с помощью окружности, метод перебора)")</f>
-        <v>Отбор корней (с помощью окружности, метод перебора)</v>
-      </c>
-      <c r="L27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),526.0)</f>
-        <v>526</v>
-      </c>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
       <c r="M27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Остроугольный, прямоугольный и тупоугольный треугольники")</f>
-        <v>Остроугольный, прямоугольный и тупоугольный треугольники</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки равенства прямоугольных треугольников")</f>
+        <v>Признаки равенства прямоугольных треугольников</v>
       </c>
       <c r="N27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),626.0)</f>
-        <v>626</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),631.0)</f>
+        <v>631</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2881,23 +2749,17 @@
         <v>826</v>
       </c>
       <c r="S27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вычисление вероятностей независимых событий")</f>
-        <v>Вычисление вероятностей независимых событий</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Использование дерева вероятностей")</f>
+        <v>Использование дерева вероятностей</v>
       </c>
       <c r="T27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),926.0)</f>
-        <v>926</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),929.0)</f>
+        <v>929</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
-      <c r="W27" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Тригонометрические подстановки")</f>
-        <v>Тригонометрические подстановки</v>
-      </c>
-      <c r="X27" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1126.0)</f>
-        <v>1126</v>
-      </c>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
       <c r="Y27" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь исследовать построенные модели с использованием аппарата алгебры")</f>
         <v>Уметь исследовать построенные модели с использованием аппарата алгебры</v>
@@ -2919,12 +2781,12 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Системы неравенств")</f>
-        <v>Системы неравенств</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смешанные неравенства")</f>
+        <v>Смешанные неравенства</v>
       </c>
       <c r="F28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),227.0)</f>
-        <v>227</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),228.0)</f>
+        <v>228</v>
       </c>
       <c r="G28" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Физический смысл производной")</f>
@@ -2936,21 +2798,15 @@
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Чётность, нечётность")</f>
-        <v>Чётность, нечётность</v>
-      </c>
-      <c r="L28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),527.0)</f>
-        <v>527</v>
-      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
       <c r="M28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о соотношениях между сторонами и углами треугольника")</f>
-        <v>Теорема о соотношениях между сторонами и углами треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Расстояние от точки до прямой")</f>
+        <v>Расстояние от точки до прямой</v>
       </c>
       <c r="N28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),627.0)</f>
-        <v>627</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),633.0)</f>
+        <v>633</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -2963,23 +2819,17 @@
         <v>827</v>
       </c>
       <c r="S28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Использование формулы сложения вероятностей")</f>
-        <v>Использование формулы сложения вероятностей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Использование формулы Бернулли")</f>
+        <v>Использование формулы Бернулли</v>
       </c>
       <c r="T28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),927.0)</f>
-        <v>927</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),930.0)</f>
+        <v>930</v>
       </c>
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
-      <c r="W28" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Векторные интерпретации")</f>
-        <v>Векторные интерпретации</v>
-      </c>
-      <c r="X28" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1127.0)</f>
-        <v>1127</v>
-      </c>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
       <c r="Y28" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь моделировать реальные ситуации на языке геометрии,")</f>
         <v>Уметь моделировать реальные ситуации на языке геометрии,</v>
@@ -3001,12 +2851,12 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Смешанные неравенства")</f>
-        <v>Смешанные неравенства</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение квадратного трёхчлена на множители")</f>
+        <v>Разложение квадратного трёхчлена на множители</v>
       </c>
       <c r="F29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),228.0)</f>
-        <v>228</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
+        <v>229</v>
       </c>
       <c r="G29" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Производная по графику")</f>
@@ -3018,21 +2868,15 @@
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"""Правило лошади""")</f>
-        <v>"Правило лошади"</v>
-      </c>
-      <c r="L29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),528.0)</f>
-        <v>528</v>
-      </c>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
       <c r="M29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Неравенство треугольника")</f>
-        <v>Неравенство треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Расстояние между параллельными прямыми")</f>
+        <v>Расстояние между параллельными прямыми</v>
       </c>
       <c r="N29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),628.0)</f>
-        <v>628</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),634.0)</f>
+        <v>634</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1"/>
@@ -3045,23 +2889,17 @@
         <v>828</v>
       </c>
       <c r="S29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Использование диаграмм Эйлера")</f>
-        <v>Использование диаграмм Эйлера</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Геометрический смысл вероятностей")</f>
+        <v>Геометрический смысл вероятностей</v>
       </c>
       <c r="T29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),928.0)</f>
-        <v>928</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),931.0)</f>
+        <v>931</v>
       </c>
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
-      <c r="W29" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнения, сводящиеся к исследованию квадратного уравнения")</f>
-        <v>Уравнения, сводящиеся к исследованию квадратного уравнения</v>
-      </c>
-      <c r="X29" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1128.0)</f>
-        <v>1128</v>
-      </c>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
       <c r="Y29" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь исследовать построенные модели с использованием геометрических понятий и теорем, аппарата алгебры;")</f>
         <v>Уметь исследовать построенные модели с использованием геометрических понятий и теорем, аппарата алгебры;</v>
@@ -3083,12 +2921,12 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение квадратного трёхчлена на множители")</f>
-        <v>Разложение квадратного трёхчлена на множители</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обобщенный метод интервалов")</f>
+        <v>Обобщенный метод интервалов</v>
       </c>
       <c r="F30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),229.0)</f>
-        <v>229</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),230.0)</f>
+        <v>230</v>
       </c>
       <c r="G30" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Касательная к графику функции. Угловой коэффициент касательной")</f>
@@ -3100,21 +2938,15 @@
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение значений углов на тригонометрической окружности")</f>
-        <v>Определение значений углов на тригонометрической окружности</v>
-      </c>
-      <c r="L30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),529.0)</f>
-        <v>529</v>
-      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
       <c r="M30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямоугольные треугольники")</f>
-        <v>Прямоугольные треугольники</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Четырёхугольник")</f>
+        <v>Четырёхугольник</v>
       </c>
       <c r="N30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),629.0)</f>
-        <v>629</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),638.0)</f>
+        <v>638</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -3126,24 +2958,12 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),829.0)</f>
         <v>829</v>
       </c>
-      <c r="S30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Использование дерева вероятностей")</f>
-        <v>Использование дерева вероятностей</v>
-      </c>
-      <c r="T30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),929.0)</f>
-        <v>929</v>
-      </c>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
-      <c r="W30" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выделение полных квадратов и неотрицательных выражений")</f>
-        <v>Выделение полных квадратов и неотрицательных выражений</v>
-      </c>
-      <c r="X30" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1129.0)</f>
-        <v>1129</v>
-      </c>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
       <c r="Y30" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь решать практические задачи, связанные с нахождением геометрических величин")</f>
         <v>Уметь решать практические задачи, связанные с нахождением геометрических величин</v>
@@ -3165,12 +2985,12 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи с числовой прямой")</f>
-        <v>Задачи с числовой прямой</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод рационализации")</f>
+        <v>Метод рационализации</v>
       </c>
       <c r="F31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),230.0)</f>
-        <v>230</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),231.0)</f>
+        <v>231</v>
       </c>
       <c r="G31" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"График функции и её производной")</f>
@@ -3182,21 +3002,15 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение значений синуса и косинуса на тригонометрической окружности")</f>
-        <v>Определение значений синуса и косинуса на тригонометрической окружности</v>
-      </c>
-      <c r="L31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),530.0)</f>
-        <v>530</v>
-      </c>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
       <c r="M31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Некоторые свойства прямоугольных треугольников")</f>
-        <v>Некоторые свойства прямоугольных треугольников</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Параллелограмм")</f>
+        <v>Параллелограмм</v>
       </c>
       <c r="N31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),630.0)</f>
-        <v>630</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),639.0)</f>
+        <v>639</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -3208,24 +3022,12 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),830.0)</f>
         <v>830</v>
       </c>
-      <c r="S31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Использование формулы Бернулли")</f>
-        <v>Использование формулы Бернулли</v>
-      </c>
-      <c r="T31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),930.0)</f>
-        <v>930</v>
-      </c>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
-      <c r="W31" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение на множители")</f>
-        <v>Разложение на множители</v>
-      </c>
-      <c r="X31" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1130.0)</f>
-        <v>1130</v>
-      </c>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
       <c r="Y31" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь проводить доказательные рассуждения при решении задач,")</f>
         <v>Уметь проводить доказательные рассуждения при решении задач,</v>
@@ -3246,8 +3048,14 @@
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="E32" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод интервалов")</f>
+        <v>Метод интервалов</v>
+      </c>
+      <c r="F32" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),232.0)</f>
+        <v>232</v>
+      </c>
       <c r="G32" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение скорости для процесса, заданного формулой или графиком")</f>
         <v>Нахождение скорости для процесса, заданного формулой или графиком</v>
@@ -3258,21 +3066,15 @@
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Обратные тригонометрические функции: определение")</f>
-        <v>Обратные тригонометрические функции: определение</v>
-      </c>
-      <c r="L32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),531.0)</f>
-        <v>531</v>
-      </c>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
       <c r="M32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки равенства прямоугольных треугольников")</f>
-        <v>Признаки равенства прямоугольных треугольников</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Трапеция")</f>
+        <v>Трапеция</v>
       </c>
       <c r="N32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),631.0)</f>
-        <v>631</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),640.0)</f>
+        <v>640</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -3284,24 +3086,12 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),831.0)</f>
         <v>831</v>
       </c>
-      <c r="S32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Геометрический смысл вероятностей")</f>
-        <v>Геометрический смысл вероятностей</v>
-      </c>
-      <c r="T32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),931.0)</f>
-        <v>931</v>
-      </c>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
-      <c r="W32" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Виета для уравнения высокого")</f>
-        <v>Теорема Виета для уравнения высокого</v>
-      </c>
-      <c r="X32" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1131.0)</f>
-        <v>1131</v>
-      </c>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
       <c r="Y32" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь оценивать логическую правильность рассуждений,")</f>
         <v>Уметь оценивать логическую правильность рассуждений,</v>
@@ -3334,21 +3124,15 @@
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Периодичность обратных тригонометрических функций")</f>
-        <v>Периодичность обратных тригонометрических функций</v>
-      </c>
-      <c r="L33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),532.0)</f>
-        <v>532</v>
-      </c>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
       <c r="M33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Построение треугольника по трём элементам")</f>
-        <v>Построение треугольника по трём элементам</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямоугольник")</f>
+        <v>Прямоугольник</v>
       </c>
       <c r="N33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),632.0)</f>
-        <v>632</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),641.0)</f>
+        <v>641</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -3364,14 +3148,8 @@
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
-      <c r="W33" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на единственность и количество решений")</f>
-        <v>Задачи на единственность и количество решений</v>
-      </c>
-      <c r="X33" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1132.0)</f>
-        <v>1132</v>
-      </c>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
       <c r="Y33" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь распознавать логически некорректные рассуждения")</f>
         <v>Уметь распознавать логически некорректные рассуждения</v>
@@ -3404,21 +3182,15 @@
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Четность/ нечетность обратных тригонометрических функций")</f>
-        <v>Четность/ нечетность обратных тригонометрических функций</v>
-      </c>
-      <c r="L34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),533.0)</f>
-        <v>533</v>
-      </c>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
       <c r="M34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Расстояние от точки до прямой")</f>
-        <v>Расстояние от точки до прямой</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ромб")</f>
+        <v>Ромб</v>
       </c>
       <c r="N34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),633.0)</f>
-        <v>633</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),642.0)</f>
+        <v>642</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -3434,14 +3206,8 @@
       <c r="T34" s="1"/>
       <c r="U34" s="1"/>
       <c r="V34" s="1"/>
-      <c r="W34" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи, решаемые с использованием симметрий")</f>
-        <v>Задачи, решаемые с использованием симметрий</v>
-      </c>
-      <c r="X34" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1133.0)</f>
-        <v>1133</v>
-      </c>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
       <c r="Y34" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь моделировать реальные ситуации на языке теории вероятностей и статистики,")</f>
         <v>Уметь моделировать реальные ситуации на языке теории вероятностей и статистики,</v>
@@ -3465,53 +3231,41 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства интеграла")</f>
-        <v>Свойства интеграла</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь между графиками функции и её первообразной;")</f>
+        <v>Связь между графиками функции и её первообразной;</v>
       </c>
       <c r="H35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),335.0)</f>
-        <v>335</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
+        <v>339</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Значения обратных тригонометрический функций")</f>
-        <v>Значения обратных тригонометрический функций</v>
-      </c>
-      <c r="L35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),534.0)</f>
-        <v>534</v>
-      </c>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
       <c r="M35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Расстояние между параллельными прямыми")</f>
-        <v>Расстояние между параллельными прямыми</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Квадрат")</f>
+        <v>Квадрат</v>
       </c>
       <c r="N35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),634.0)</f>
-        <v>634</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),643.0)</f>
+        <v>643</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Усеченная пирамида")</f>
-        <v>Усеченная пирамида</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие конуса")</f>
+        <v>Понятие конуса</v>
       </c>
       <c r="R35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),834.0)</f>
-        <v>834</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),835.0)</f>
+        <v>835</v>
       </c>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
       <c r="U35" s="1"/>
       <c r="V35" s="1"/>
-      <c r="W35" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Решения, основанные на нахождении наибольших и наименьших значений (метод минимаксов)")</f>
-        <v>Решения, основанные на нахождении наибольших и наименьших значений (метод минимаксов)</v>
-      </c>
-      <c r="X35" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1134.0)</f>
-        <v>1134</v>
-      </c>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
       <c r="Y35" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь вычислять в простейших случаях вероятности событий")</f>
         <v>Уметь вычислять в простейших случаях вероятности событий</v>
@@ -3535,53 +3289,41 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Нахождение площади с помощью интеграла")</f>
-        <v>Нахождение площади с помощью интеграла</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Геометрический смысл первообразной")</f>
+        <v>Геометрический смысл первообразной</v>
       </c>
       <c r="H36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),336.0)</f>
-        <v>336</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),340.0)</f>
+        <v>340</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Графики обратных тригонометрических функций")</f>
-        <v>Графики обратных тригонометрических функций</v>
-      </c>
-      <c r="L36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),535.0)</f>
-        <v>535</v>
-      </c>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
       <c r="M36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Построение треугольника по трём элементам")</f>
-        <v>Построение треугольника по трём элементам</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь квадрата")</f>
+        <v>Площадь квадрата</v>
       </c>
       <c r="N36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),635.0)</f>
-        <v>635</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),646.0)</f>
+        <v>646</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие конуса")</f>
-        <v>Понятие конуса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Элементы конуса")</f>
+        <v>Элементы конуса</v>
       </c>
       <c r="R36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),835.0)</f>
-        <v>835</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),836.0)</f>
+        <v>836</v>
       </c>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
-      <c r="W36" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи на целые числа")</f>
-        <v>Задачи на целые числа</v>
-      </c>
-      <c r="X36" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1135.0)</f>
-        <v>1135</v>
-      </c>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
       <c r="Y36" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь анализировать реальные числовые данные, информацию статистического характера")</f>
         <v>Уметь анализировать реальные числовые данные, информацию статистического характера</v>
@@ -3605,47 +3347,41 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Таблица первообразной")</f>
-        <v>Таблица первообразной</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дробно рациональная функция")</f>
+        <v>Дробно рациональная функция</v>
       </c>
       <c r="H37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),337.0)</f>
-        <v>337</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),341.0)</f>
+        <v>341</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Многоугольник")</f>
-        <v>Многоугольник</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь прямоугольника")</f>
+        <v>Площадь прямоугольника</v>
       </c>
       <c r="N37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),636.0)</f>
-        <v>636</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),647.0)</f>
+        <v>647</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Элементы конуса")</f>
-        <v>Элементы конуса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства конуса")</f>
+        <v>Свойства конуса</v>
       </c>
       <c r="R37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),836.0)</f>
-        <v>836</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),837.0)</f>
+        <v>837</v>
       </c>
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
-      <c r="W37" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи с целой и дробной частью числа")</f>
-        <v>Задачи с целой и дробной частью числа</v>
-      </c>
-      <c r="X37" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1136.0)</f>
-        <v>1136</v>
-      </c>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
       <c r="Y37" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь осуществлять практические расчёты по формулам")</f>
         <v>Уметь осуществлять практические расчёты по формулам</v>
@@ -3668,48 +3404,36 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правила вычисления первообразных;")</f>
-        <v>Правила вычисления первообразных;</v>
-      </c>
-      <c r="H38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),338.0)</f>
-        <v>338</v>
-      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Выпуклый многоугольник")</f>
-        <v>Выпуклый многоугольник</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь параллелограмма")</f>
+        <v>Площадь параллелограмма</v>
       </c>
       <c r="N38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),637.0)</f>
-        <v>637</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),648.0)</f>
+        <v>648</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства конуса")</f>
-        <v>Свойства конуса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объем конуса")</f>
+        <v>Объем конуса</v>
       </c>
       <c r="R38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),837.0)</f>
-        <v>837</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),838.0)</f>
+        <v>838</v>
       </c>
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
       <c r="U38" s="1"/>
       <c r="V38" s="1"/>
-      <c r="W38" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи с итерациями")</f>
-        <v>Задачи с итерациями</v>
-      </c>
-      <c r="X38" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1137.0)</f>
-        <v>1137</v>
-      </c>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
       <c r="Y38" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь пользоваться оценкой и прикидкой при практических расчётах")</f>
         <v>Уметь пользоваться оценкой и прикидкой при практических расчётах</v>
@@ -3732,48 +3456,36 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Связь между графиками функции и её первообразной;")</f>
-        <v>Связь между графиками функции и её первообразной;</v>
-      </c>
-      <c r="H39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),339.0)</f>
-        <v>339</v>
-      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Четырёхугольник")</f>
-        <v>Четырёхугольник</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь треугольника")</f>
+        <v>Площадь треугольника</v>
       </c>
       <c r="N39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),638.0)</f>
-        <v>638</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),649.0)</f>
+        <v>649</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объем конуса")</f>
-        <v>Объем конуса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь элементов конуса")</f>
+        <v>Площадь элементов конуса</v>
       </c>
       <c r="R39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),838.0)</f>
-        <v>838</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),839.0)</f>
+        <v>839</v>
       </c>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
       <c r="V39" s="1"/>
-      <c r="W39" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи с требованием выполнения (или невыполнения) неравенства для всех значений параметра")</f>
-        <v>Задачи с требованием выполнения (или невыполнения) неравенства для всех значений параметра</v>
-      </c>
-      <c r="X39" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1138.0)</f>
-        <v>1138</v>
-      </c>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
       <c r="Y39" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь описывать с помощью функций различные реальные зависимости между величинами и интерпретировать их графики")</f>
         <v>Уметь описывать с помощью функций различные реальные зависимости между величинами и интерпретировать их графики</v>
@@ -3796,48 +3508,36 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Геометрический смысл первообразной")</f>
-        <v>Геометрический смысл первообразной</v>
-      </c>
-      <c r="H40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),340.0)</f>
-        <v>340</v>
-      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Параллелограмм")</f>
-        <v>Параллелограмм</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь трапеции")</f>
+        <v>Площадь трапеции</v>
       </c>
       <c r="N40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),639.0)</f>
-        <v>639</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),650.0)</f>
+        <v>650</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь элементов конуса")</f>
-        <v>Площадь элементов конуса</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие цилиндра")</f>
+        <v>Понятие цилиндра</v>
       </c>
       <c r="R40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),839.0)</f>
-        <v>839</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),841.0)</f>
+        <v>841</v>
       </c>
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
       <c r="U40" s="1"/>
       <c r="V40" s="1"/>
-      <c r="W40" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Геометрические задачи с элементами алгебры")</f>
-        <v>Геометрические задачи с элементами алгебры</v>
-      </c>
-      <c r="X40" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1139.0)</f>
-        <v>1139</v>
-      </c>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
       <c r="Y40" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь извлекать информацию, представленную в таблицах, на диаграммах, графиках")</f>
         <v>Уметь извлекать информацию, представленную в таблицах, на диаграммах, графиках</v>
@@ -3860,48 +3560,36 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Дробно рациональная функция")</f>
-        <v>Дробно рациональная функция</v>
-      </c>
-      <c r="H41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),341.0)</f>
-        <v>341</v>
-      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Трапеция")</f>
-        <v>Трапеция</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Пифагора")</f>
+        <v>Теорема Пифагора</v>
       </c>
       <c r="N41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),640.0)</f>
-        <v>640</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),651.0)</f>
+        <v>651</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Усеченный конус")</f>
-        <v>Усеченный конус</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Элементы цилиндра")</f>
+        <v>Элементы цилиндра</v>
       </c>
       <c r="R41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),840.0)</f>
-        <v>840</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),842.0)</f>
+        <v>842</v>
       </c>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
-      <c r="W41" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Задачи алгебры с использованием геометрии")</f>
-        <v>Задачи алгебры с использованием геометрии</v>
-      </c>
-      <c r="X41" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1140.0)</f>
-        <v>1140</v>
-      </c>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уметь решать прикладные задачи, в том числе социально-экономического и физического характера, на наибольшие и наименьшие значения, на нахождение скорости и ускорения")</f>
         <v>Уметь решать прикладные задачи, в том числе социально-экономического и физического характера, на наибольшие и наименьшие значения, на нахождение скорости и ускорения</v>
@@ -3931,35 +3619,29 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямоугольник")</f>
-        <v>Прямоугольник</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема, обратная теореме Пифагора")</f>
+        <v>Теорема, обратная теореме Пифагора</v>
       </c>
       <c r="N42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),641.0)</f>
-        <v>641</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),652.0)</f>
+        <v>652</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие цилиндра")</f>
-        <v>Понятие цилиндра</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства цилиндра")</f>
+        <v>Свойства цилиндра</v>
       </c>
       <c r="R42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),841.0)</f>
-        <v>841</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),843.0)</f>
+        <v>843</v>
       </c>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
-      <c r="W42" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Числовые множества")</f>
-        <v>Числовые множества</v>
-      </c>
-      <c r="X42" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1141.0)</f>
-        <v>1141</v>
-      </c>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умения связанные с приближенной оценкой площади по карте")</f>
         <v>Умения связанные с приближенной оценкой площади по карте</v>
@@ -3989,35 +3671,29 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Ромб")</f>
-        <v>Ромб</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула Герона")</f>
+        <v>Формула Герона</v>
       </c>
       <c r="N43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),642.0)</f>
-        <v>642</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),653.0)</f>
+        <v>653</v>
       </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Элементы цилиндра")</f>
-        <v>Элементы цилиндра</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объем цилиндра")</f>
+        <v>Объем цилиндра</v>
       </c>
       <c r="R43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),842.0)</f>
-        <v>842</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),844.0)</f>
+        <v>844</v>
       </c>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
-      <c r="W43" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Натуральные числа")</f>
-        <v>Натуральные числа</v>
-      </c>
-      <c r="X43" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1142.0)</f>
-        <v>1142</v>
-      </c>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умения связанные с единицами измерения массы")</f>
         <v>Умения связанные с единицами измерения массы</v>
@@ -4047,35 +3723,29 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Квадрат")</f>
-        <v>Квадрат</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение подобных треугольников")</f>
+        <v>Определение подобных треугольников</v>
       </c>
       <c r="N44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),643.0)</f>
-        <v>643</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),654.0)</f>
+        <v>654</v>
       </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства цилиндра")</f>
-        <v>Свойства цилиндра</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь элементов цилиндра")</f>
+        <v>Площадь элементов цилиндра</v>
       </c>
       <c r="R44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),843.0)</f>
-        <v>843</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),845.0)</f>
+        <v>845</v>
       </c>
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Целые числа")</f>
-        <v>Целые числа</v>
-      </c>
-      <c r="X44" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1143.0)</f>
-        <v>1143</v>
-      </c>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умения связанные с единицами измерения времени")</f>
         <v>Умения связанные с единицами измерения времени</v>
@@ -4105,35 +3775,29 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Осевая и центральная симметрии")</f>
-        <v>Осевая и центральная симметрии</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пропорциональные отрезки")</f>
+        <v>Пропорциональные отрезки</v>
       </c>
       <c r="N45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),644.0)</f>
-        <v>644</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),655.0)</f>
+        <v>655</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объем цилиндра")</f>
-        <v>Объем цилиндра</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие сферы")</f>
+        <v>Понятие сферы</v>
       </c>
       <c r="R45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),844.0)</f>
-        <v>844</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),846.0)</f>
+        <v>846</v>
       </c>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
       <c r="U45" s="1"/>
       <c r="V45" s="1"/>
-      <c r="W45" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Рациональные числа")</f>
-        <v>Рациональные числа</v>
-      </c>
-      <c r="X45" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1144.0)</f>
-        <v>1144</v>
-      </c>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умения связанные с единицами измерения длины ")</f>
         <v>Умения связанные с единицами измерения длины </v>
@@ -4163,35 +3827,29 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие площади многоугольника")</f>
-        <v>Понятие площади многоугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отношение площадей подобных треугольников")</f>
+        <v>Отношение площадей подобных треугольников</v>
       </c>
       <c r="N46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),645.0)</f>
-        <v>645</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),656.0)</f>
+        <v>656</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь элементов цилиндра")</f>
-        <v>Площадь элементов цилиндра</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие шара")</f>
+        <v>Понятие шара</v>
       </c>
       <c r="R46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),845.0)</f>
-        <v>845</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),847.0)</f>
+        <v>847</v>
       </c>
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
       <c r="U46" s="1"/>
       <c r="V46" s="1"/>
-      <c r="W46" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие делимости")</f>
-        <v>Понятие делимости</v>
-      </c>
-      <c r="X46" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1145.0)</f>
-        <v>1145</v>
-      </c>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умения связанные с единицами измерения площади")</f>
         <v>Умения связанные с единицами измерения площади</v>
@@ -4221,35 +3879,29 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь квадрата")</f>
-        <v>Площадь квадрата</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки подобия треугольников")</f>
+        <v>Признаки подобия треугольников</v>
       </c>
       <c r="N47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),646.0)</f>
-        <v>646</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),657.0)</f>
+        <v>657</v>
       </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие сферы")</f>
-        <v>Понятие сферы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь сферы")</f>
+        <v>Площадь сферы</v>
       </c>
       <c r="R47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),846.0)</f>
-        <v>846</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),848.0)</f>
+        <v>848</v>
       </c>
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
-      <c r="W47" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки делимости чисел")</f>
-        <v>Признаки делимости чисел</v>
-      </c>
-      <c r="X47" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1146.0)</f>
-        <v>1146</v>
-      </c>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умения связанные с единицами измерения объема")</f>
         <v>Умения связанные с единицами измерения объема</v>
@@ -4279,35 +3931,29 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь прямоугольника")</f>
-        <v>Площадь прямоугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средняя линия треугольника")</f>
+        <v>Средняя линия треугольника</v>
       </c>
       <c r="N48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),647.0)</f>
-        <v>647</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),658.0)</f>
+        <v>658</v>
       </c>
       <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Понятие шара")</f>
-        <v>Понятие шара</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объем шара")</f>
+        <v>Объем шара</v>
       </c>
       <c r="R48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),847.0)</f>
-        <v>847</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),849.0)</f>
+        <v>849</v>
       </c>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
       <c r="U48" s="1"/>
       <c r="V48" s="1"/>
-      <c r="W48" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение четности")</f>
-        <v>Определение четности</v>
-      </c>
-      <c r="X48" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1147.0)</f>
-        <v>1147</v>
-      </c>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умения связанные с единицами измерения скорости")</f>
         <v>Умения связанные с единицами измерения скорости</v>
@@ -4337,35 +3983,29 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь параллелограмма")</f>
-        <v>Площадь параллелограмма</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пропорциональные отрезки в прямоугольном треугольнике")</f>
+        <v>Пропорциональные отрезки в прямоугольном треугольнике</v>
       </c>
       <c r="N49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),648.0)</f>
-        <v>648</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),659.0)</f>
+        <v>659</v>
       </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь сферы")</f>
-        <v>Площадь сферы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составные многогранники")</f>
+        <v>Составные многогранники</v>
       </c>
       <c r="R49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),848.0)</f>
-        <v>848</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),853.0)</f>
+        <v>853</v>
       </c>
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Утверждения о четности чисел")</f>
-        <v>Утверждения о четности чисел</v>
-      </c>
-      <c r="X49" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1148.0)</f>
-        <v>1148</v>
-      </c>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение переводить величины из одних единиц измерения в другие")</f>
         <v>Умение переводить величины из одних единиц измерения в другие</v>
@@ -4395,35 +4035,29 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь треугольника")</f>
-        <v>Площадь треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соотношения между сторонами и углами прямоугольного треугольника")</f>
+        <v>Соотношения между сторонами и углами прямоугольного треугольника</v>
       </c>
       <c r="N50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),649.0)</f>
-        <v>649</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),660.0)</f>
+        <v>660</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объем шара")</f>
-        <v>Объем шара</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сечения")</f>
+        <v>Сечения</v>
       </c>
       <c r="R50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),849.0)</f>
-        <v>849</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),854.0)</f>
+        <v>854</v>
       </c>
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Деление с остатком")</f>
-        <v>Деление с остатком</v>
-      </c>
-      <c r="X50" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1149.0)</f>
-        <v>1149</v>
-      </c>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Умение решать простейшие текстовые задачи")</f>
         <v>Умение решать простейшие текстовые задачи</v>
@@ -4453,35 +4087,29 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь трапеции")</f>
-        <v>Площадь трапеции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синус, косинус, тангенс, котангенс острого угла прямоугольного треугольника")</f>
+        <v>Синус, косинус, тангенс, котангенс острого угла прямоугольного треугольника</v>
       </c>
       <c r="N51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),650.0)</f>
-        <v>650</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),661.0)</f>
+        <v>661</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объем шарового сегмента")</f>
-        <v>Объем шарового сегмента</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Методы построения сечений: метод следов")</f>
+        <v>Методы построения сечений: метод следов</v>
       </c>
       <c r="R51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),850.0)</f>
-        <v>850</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),855.0)</f>
+        <v>855</v>
       </c>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
       <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Простое число")</f>
-        <v>Простое число</v>
-      </c>
-      <c r="X51" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1150.0)</f>
-        <v>1150</v>
-      </c>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
@@ -4505,35 +4133,29 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Пифагора")</f>
-        <v>Теорема Пифагора</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимное расположение прямой и окружности")</f>
+        <v>Взаимное расположение прямой и окружности</v>
       </c>
       <c r="N52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),651.0)</f>
-        <v>651</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),662.0)</f>
+        <v>662</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объем шарового слоя")</f>
-        <v>Объем шарового слоя</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Подобные тела")</f>
+        <v>Подобные тела</v>
       </c>
       <c r="R52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),851.0)</f>
-        <v>851</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),862.0)</f>
+        <v>862</v>
       </c>
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
-      <c r="W52" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составное число")</f>
-        <v>Составное число</v>
-      </c>
-      <c r="X52" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1151.0)</f>
-        <v>1151</v>
-      </c>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
@@ -4557,35 +4179,29 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема, обратная теореме Пифагора")</f>
-        <v>Теорема, обратная теореме Пифагора</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Касательная к окружности")</f>
+        <v>Касательная к окружности</v>
       </c>
       <c r="N53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),652.0)</f>
-        <v>652</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),663.0)</f>
+        <v>663</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объем шарового сектора")</f>
-        <v>Объем шарового сектора</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отношение объёмов подобных тел")</f>
+        <v>Отношение объёмов подобных тел</v>
       </c>
       <c r="R53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),852.0)</f>
-        <v>852</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),863.0)</f>
+        <v>863</v>
       </c>
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
       <c r="U53" s="1"/>
       <c r="V53" s="1"/>
-      <c r="W53" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Основная теорема арифметики")</f>
-        <v>Основная теорема арифметики</v>
-      </c>
-      <c r="X53" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1152.0)</f>
-        <v>1152</v>
-      </c>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
@@ -4609,35 +4225,29 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формула Герона")</f>
-        <v>Формула Герона</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Центральные и вписанные углы")</f>
+        <v>Центральные и вписанные углы</v>
       </c>
       <c r="N54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),653.0)</f>
-        <v>653</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),664.0)</f>
+        <v>664</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Составные многогранники")</f>
-        <v>Составные многогранники</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отношение площадей поверхностей подобных тел")</f>
+        <v>Отношение площадей поверхностей подобных тел</v>
       </c>
       <c r="R54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),853.0)</f>
-        <v>853</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),864.0)</f>
+        <v>864</v>
       </c>
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
       <c r="U54" s="1"/>
       <c r="V54" s="1"/>
-      <c r="W54" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Каноническое разложение")</f>
-        <v>Каноническое разложение</v>
-      </c>
-      <c r="X54" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1153.0)</f>
-        <v>1153</v>
-      </c>
+      <c r="W54" s="1"/>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
@@ -4661,35 +4271,29 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Определение подобных треугольников")</f>
-        <v>Определение подобных треугольников</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Градусная мера дуги окружности")</f>
+        <v>Градусная мера дуги окружности</v>
       </c>
       <c r="N55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),654.0)</f>
-        <v>654</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),665.0)</f>
+        <v>665</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Сечения")</f>
-        <v>Сечения</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод объёмов")</f>
+        <v>Метод объёмов</v>
       </c>
       <c r="R55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),854.0)</f>
-        <v>854</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),865.0)</f>
+        <v>865</v>
       </c>
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
       <c r="U55" s="1"/>
       <c r="V55" s="1"/>
-      <c r="W55" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Делитель")</f>
-        <v>Делитель</v>
-      </c>
-      <c r="X55" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1154.0)</f>
-        <v>1154</v>
-      </c>
+      <c r="W55" s="1"/>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
@@ -4713,35 +4317,23 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пропорциональные отрезки")</f>
-        <v>Пропорциональные отрезки</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о вписанном угле")</f>
+        <v>Теорема о вписанном угле</v>
       </c>
       <c r="N56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),655.0)</f>
-        <v>655</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),666.0)</f>
+        <v>666</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Методы построения сечений: метод следов")</f>
-        <v>Методы построения сечений: метод следов</v>
-      </c>
-      <c r="R56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),855.0)</f>
-        <v>855</v>
-      </c>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
       <c r="V56" s="1"/>
-      <c r="W56" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимно простые числа")</f>
-        <v>Взаимно простые числа</v>
-      </c>
-      <c r="X56" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1155.0)</f>
-        <v>1155</v>
-      </c>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
@@ -4765,35 +4357,23 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отношение площадей подобных треугольников")</f>
-        <v>Отношение площадей подобных треугольников</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства биссектрисы угла")</f>
+        <v>Свойства биссектрисы угла</v>
       </c>
       <c r="N57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),656.0)</f>
-        <v>656</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),668.0)</f>
+        <v>668</v>
       </c>
       <c r="O57" s="1"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Компланарные векторы")</f>
-        <v>Компланарные векторы</v>
-      </c>
-      <c r="R57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),856.0)</f>
-        <v>856</v>
-      </c>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
       <c r="U57" s="1"/>
       <c r="V57" s="1"/>
-      <c r="W57" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства взаимно простых чисел")</f>
-        <v>Свойства взаимно простых чисел</v>
-      </c>
-      <c r="X57" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1156.0)</f>
-        <v>1156</v>
-      </c>
+      <c r="W57" s="1"/>
+      <c r="X57" s="1"/>
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
@@ -4817,35 +4397,23 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Признаки подобия треугольников")</f>
-        <v>Признаки подобия треугольников</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства серединного перпендикуляра к отрезку")</f>
+        <v>Свойства серединного перпендикуляра к отрезку</v>
       </c>
       <c r="N58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),657.0)</f>
-        <v>657</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),669.0)</f>
+        <v>669</v>
       </c>
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение вектора по двум неколлинеарным векторам")</f>
-        <v>Разложение вектора по двум неколлинеарным векторам</v>
-      </c>
-      <c r="R58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),857.0)</f>
-        <v>857</v>
-      </c>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
       <c r="V58" s="1"/>
-      <c r="W58" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Числовая последовательность")</f>
-        <v>Числовая последовательность</v>
-      </c>
-      <c r="X58" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1157.0)</f>
-        <v>1157</v>
-      </c>
+      <c r="W58" s="1"/>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
@@ -4869,35 +4437,23 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средняя линия треугольника")</f>
-        <v>Средняя линия треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о пересечении высот треугольника")</f>
+        <v>Теорема о пересечении высот треугольника</v>
       </c>
       <c r="N59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),658.0)</f>
-        <v>658</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),670.0)</f>
+        <v>670</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Коллинеарные векторы")</f>
-        <v>Коллинеарные векторы</v>
-      </c>
-      <c r="R59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),858.0)</f>
-        <v>858</v>
-      </c>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Арифметическая прогрессия")</f>
-        <v>Арифметическая прогрессия</v>
-      </c>
-      <c r="X59" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1158.0)</f>
-        <v>1158</v>
-      </c>
+      <c r="W59" s="1"/>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
@@ -4921,35 +4477,23 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Пропорциональные отрезки в прямоугольном треугольнике")</f>
-        <v>Пропорциональные отрезки в прямоугольном треугольнике</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вписанная окружность")</f>
+        <v>Вписанная окружность</v>
       </c>
       <c r="N60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),659.0)</f>
-        <v>659</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),671.0)</f>
+        <v>671</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о разложении вектора по трем некомпланарным векторам")</f>
-        <v>Теорема о разложении вектора по трем некомпланарным векторам</v>
-      </c>
-      <c r="R60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),859.0)</f>
-        <v>859</v>
-      </c>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-      <c r="W60" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства арифметической прогрессии")</f>
-        <v>Свойства арифметической прогрессии</v>
-      </c>
-      <c r="X60" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1159.0)</f>
-        <v>1159</v>
-      </c>
+      <c r="W60" s="1"/>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
@@ -4973,35 +4517,23 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Соотношения между сторонами и углами прямоугольного треугольника")</f>
-        <v>Соотношения между сторонами и углами прямоугольного треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описанная окружность")</f>
+        <v>Описанная окружность</v>
       </c>
       <c r="N61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),660.0)</f>
-        <v>660</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),672.0)</f>
+        <v>672</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Объемы тел вращения")</f>
-        <v>Объемы тел вращения</v>
-      </c>
-      <c r="R61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),860.0)</f>
-        <v>860</v>
-      </c>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
       <c r="U61" s="1"/>
       <c r="V61" s="1"/>
-      <c r="W61" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Геометрическая прогрессия")</f>
-        <v>Геометрическая прогрессия</v>
-      </c>
-      <c r="X61" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1160.0)</f>
-        <v>1160</v>
-      </c>
+      <c r="W61" s="1"/>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
@@ -5019,35 +4551,23 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Синус, косинус, тангенс, котангенс острого угла прямоугольного треугольника")</f>
-        <v>Синус, косинус, тангенс, котангенс острого угла прямоугольного треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средняя линия трапеции")</f>
+        <v>Средняя линия трапеции</v>
       </c>
       <c r="N62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),661.0)</f>
-        <v>661</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),673.0)</f>
+        <v>673</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь поверхности вращения")</f>
-        <v>Площадь поверхности вращения</v>
-      </c>
-      <c r="R62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),861.0)</f>
-        <v>861</v>
-      </c>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-      <c r="W62" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойство геометрической прогрессии")</f>
-        <v>Свойство геометрической прогрессии</v>
-      </c>
-      <c r="X62" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1161.0)</f>
-        <v>1161</v>
-      </c>
+      <c r="W62" s="1"/>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
@@ -5065,35 +4585,23 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимное расположение прямой и окружности")</f>
-        <v>Взаимное расположение прямой и окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение окружности")</f>
+        <v>Уравнение окружности</v>
       </c>
       <c r="N63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),662.0)</f>
-        <v>662</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),675.0)</f>
+        <v>675</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
-      <c r="Q63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Подобные тела")</f>
-        <v>Подобные тела</v>
-      </c>
-      <c r="R63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),862.0)</f>
-        <v>862</v>
-      </c>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
       <c r="U63" s="1"/>
       <c r="V63" s="1"/>
-      <c r="W63" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"НОД")</f>
-        <v>НОД</v>
-      </c>
-      <c r="X63" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1162.0)</f>
-        <v>1162</v>
-      </c>
+      <c r="W63" s="1"/>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
@@ -5111,35 +4619,23 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Касательная к окружности")</f>
-        <v>Касательная к окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимное расположение двух окружностей")</f>
+        <v>Взаимное расположение двух окружностей</v>
       </c>
       <c r="N64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),663.0)</f>
-        <v>663</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),677.0)</f>
+        <v>677</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1"/>
-      <c r="Q64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отношение объёмов подобных тел")</f>
-        <v>Отношение объёмов подобных тел</v>
-      </c>
-      <c r="R64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),863.0)</f>
-        <v>863</v>
-      </c>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
       <c r="U64" s="1"/>
       <c r="V64" s="1"/>
-      <c r="W64" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"НОК")</f>
-        <v>НОК</v>
-      </c>
-      <c r="X64" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1163.0)</f>
-        <v>1163</v>
-      </c>
+      <c r="W64" s="1"/>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
@@ -5157,35 +4653,23 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Центральные и вписанные углы")</f>
-        <v>Центральные и вписанные углы</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о площади треугольника")</f>
+        <v>Теорема о площади треугольника</v>
       </c>
       <c r="N65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),664.0)</f>
-        <v>664</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),678.0)</f>
+        <v>678</v>
       </c>
       <c r="O65" s="1"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Отношение площадей поверхностей подобных тел")</f>
-        <v>Отношение площадей поверхностей подобных тел</v>
-      </c>
-      <c r="R65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),864.0)</f>
-        <v>864</v>
-      </c>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
       <c r="U65" s="1"/>
       <c r="V65" s="1"/>
-      <c r="W65" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Разложение числа на десятки, сотни и т.д.")</f>
-        <v>Разложение числа на десятки, сотни и т.д.</v>
-      </c>
-      <c r="X65" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1164.0)</f>
-        <v>1164</v>
-      </c>
+      <c r="W65" s="1"/>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
@@ -5203,23 +4687,17 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Градусная мера дуги окружности")</f>
-        <v>Градусная мера дуги окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема синусов")</f>
+        <v>Теорема синусов</v>
       </c>
       <c r="N66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),665.0)</f>
-        <v>665</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),679.0)</f>
+        <v>679</v>
       </c>
       <c r="O66" s="1"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод объёмов")</f>
-        <v>Метод объёмов</v>
-      </c>
-      <c r="R66" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),865.0)</f>
-        <v>865</v>
-      </c>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
       <c r="U66" s="1"/>
@@ -5243,12 +4721,12 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о вписанном угле")</f>
-        <v>Теорема о вписанном угле</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема косинусов")</f>
+        <v>Теорема косинусов</v>
       </c>
       <c r="N67" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),666.0)</f>
-        <v>666</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),680.0)</f>
+        <v>680</v>
       </c>
       <c r="O67" s="1"/>
       <c r="P67" s="1"/>
@@ -5277,12 +4755,12 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Четыре замечательные точки треугольника")</f>
-        <v>Четыре замечательные точки треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окружность, описанная около правильного многоугольника")</f>
+        <v>Окружность, описанная около правильного многоугольника</v>
       </c>
       <c r="N68" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),667.0)</f>
-        <v>667</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),682.0)</f>
+        <v>682</v>
       </c>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
@@ -5311,12 +4789,12 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства биссектрисы угла")</f>
-        <v>Свойства биссектрисы угла</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окружность, вписанная в правильный многоугольник")</f>
+        <v>Окружность, вписанная в правильный многоугольник</v>
       </c>
       <c r="N69" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),668.0)</f>
-        <v>668</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),683.0)</f>
+        <v>683</v>
       </c>
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
@@ -5345,12 +4823,12 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства серединного перпендикуляра к отрезку")</f>
-        <v>Свойства серединного перпендикуляра к отрезку</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы для вычисления площади правильного многоугольника, его стороны и радиуса вписанной окружности")</f>
+        <v>Формулы для вычисления площади правильного многоугольника, его стороны и радиуса вписанной окружности</v>
       </c>
       <c r="N70" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),669.0)</f>
-        <v>669</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),684.0)</f>
+        <v>684</v>
       </c>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
@@ -5379,12 +4857,12 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о пересечении высот треугольника")</f>
-        <v>Теорема о пересечении высот треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Длина окружности")</f>
+        <v>Длина окружности</v>
       </c>
       <c r="N71" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),670.0)</f>
-        <v>670</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),686.0)</f>
+        <v>686</v>
       </c>
       <c r="O71" s="1"/>
       <c r="P71" s="1"/>
@@ -5413,12 +4891,12 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Вписанная окружность")</f>
-        <v>Вписанная окружность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь круга")</f>
+        <v>Площадь круга</v>
       </c>
       <c r="N72" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),671.0)</f>
-        <v>671</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),687.0)</f>
+        <v>687</v>
       </c>
       <c r="O72" s="1"/>
       <c r="P72" s="1"/>
@@ -5447,12 +4925,12 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описанная окружность")</f>
-        <v>Описанная окружность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь кругового сектора, кольца")</f>
+        <v>Площадь кругового сектора, кольца</v>
       </c>
       <c r="N73" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),672.0)</f>
-        <v>672</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),688.0)</f>
+        <v>688</v>
       </c>
       <c r="O73" s="1"/>
       <c r="P73" s="1"/>
@@ -5481,12 +4959,12 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Средняя линия трапеции")</f>
-        <v>Средняя линия трапеции</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описанная и вписанная окружность для четырехугольника")</f>
+        <v>Описанная и вписанная окружность для четырехугольника</v>
       </c>
       <c r="N74" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),673.0)</f>
-        <v>673</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),689.0)</f>
+        <v>689</v>
       </c>
       <c r="O74" s="1"/>
       <c r="P74" s="1"/>
@@ -5515,12 +4993,12 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение линии на плоскости")</f>
-        <v>Уравнение линии на плоскости</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Секущая, касательная для окружности")</f>
+        <v>Секущая, касательная для окружности</v>
       </c>
       <c r="N75" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),674.0)</f>
-        <v>674</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),690.0)</f>
+        <v>690</v>
       </c>
       <c r="O75" s="1"/>
       <c r="P75" s="1"/>
@@ -5549,12 +5027,12 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение окружности")</f>
-        <v>Уравнение окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь треугольника через вписанную окружность")</f>
+        <v>Площадь треугольника через вписанную окружность</v>
       </c>
       <c r="N76" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),675.0)</f>
-        <v>675</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),691.0)</f>
+        <v>691</v>
       </c>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -5583,12 +5061,12 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение прямой")</f>
-        <v>Уравнение прямой</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Углы между секущими и хордами в окружности")</f>
+        <v>Углы между секущими и хордами в окружности</v>
       </c>
       <c r="N77" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),676.0)</f>
-        <v>676</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692.0)</f>
+        <v>692</v>
       </c>
       <c r="O77" s="1"/>
       <c r="P77" s="1"/>
@@ -5617,12 +5095,12 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Взаимное расположение двух окружностей")</f>
-        <v>Взаимное расположение двух окружностей</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Менелая")</f>
+        <v>Теорема Менелая</v>
       </c>
       <c r="N78" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),677.0)</f>
-        <v>677</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),693.0)</f>
+        <v>693</v>
       </c>
       <c r="O78" s="1"/>
       <c r="P78" s="1"/>
@@ -5651,12 +5129,12 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о площади треугольника")</f>
-        <v>Теорема о площади треугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Чевы")</f>
+        <v>Теорема Чевы</v>
       </c>
       <c r="N79" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),678.0)</f>
-        <v>678</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),694.0)</f>
+        <v>694</v>
       </c>
       <c r="O79" s="1"/>
       <c r="P79" s="1"/>
@@ -5685,12 +5163,12 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема синусов")</f>
-        <v>Теорема синусов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Фалеса")</f>
+        <v>Теорема Фалеса</v>
       </c>
       <c r="N80" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),679.0)</f>
-        <v>679</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),695.0)</f>
+        <v>695</v>
       </c>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
@@ -5719,12 +5197,12 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема косинусов")</f>
-        <v>Теорема косинусов</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о пропорциональных отрезках")</f>
+        <v>Теорема о пропорциональных отрезках</v>
       </c>
       <c r="N81" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),680.0)</f>
-        <v>680</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),696.0)</f>
+        <v>696</v>
       </c>
       <c r="O81" s="1"/>
       <c r="P81" s="1"/>
@@ -5753,12 +5231,12 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правильный многоугольник")</f>
-        <v>Правильный многоугольник</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Периметр")</f>
+        <v>Периметр</v>
       </c>
       <c r="N82" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),681.0)</f>
-        <v>681</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),697.0)</f>
+        <v>697</v>
       </c>
       <c r="O82" s="1"/>
       <c r="P82" s="1"/>
@@ -5787,12 +5265,12 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окружность, описанная около правильного многоугольника")</f>
-        <v>Окружность, описанная около правильного многоугольника</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правильный треугольник")</f>
+        <v>Правильный треугольник</v>
       </c>
       <c r="N83" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),682.0)</f>
-        <v>682</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),698.0)</f>
+        <v>698</v>
       </c>
       <c r="O83" s="1"/>
       <c r="P83" s="1"/>
@@ -5821,12 +5299,12 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Окружность, вписанная в правильный многоугольник")</f>
-        <v>Окружность, вписанная в правильный многоугольник</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правильный шестиугольник")</f>
+        <v>Правильный шестиугольник</v>
       </c>
       <c r="N84" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),683.0)</f>
-        <v>683</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),699.0)</f>
+        <v>699</v>
       </c>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
@@ -5855,12 +5333,12 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Формулы для вычисления площади правильного многоугольника, его стороны и радиуса вписанной окружности")</f>
-        <v>Формулы для вычисления площади правильного многоугольника, его стороны и радиуса вписанной окружности</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод площадей")</f>
+        <v>Метод площадей</v>
       </c>
       <c r="N85" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),684.0)</f>
-        <v>684</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1301.0)</f>
+        <v>1301</v>
       </c>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
@@ -5888,14 +5366,8 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Построение правильных многоугольников")</f>
-        <v>Построение правильных многоугольников</v>
-      </c>
-      <c r="N86" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),685.0)</f>
-        <v>685</v>
-      </c>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
       <c r="O86" s="1"/>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -5922,14 +5394,8 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
-      <c r="M87" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Длина окружности")</f>
-        <v>Длина окружности</v>
-      </c>
-      <c r="N87" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),686.0)</f>
-        <v>686</v>
-      </c>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
       <c r="O87" s="1"/>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -5956,14 +5422,8 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
-      <c r="M88" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь круга")</f>
-        <v>Площадь круга</v>
-      </c>
-      <c r="N88" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),687.0)</f>
-        <v>687</v>
-      </c>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
       <c r="O88" s="1"/>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -5990,14 +5450,8 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
-      <c r="M89" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь кругового сектора, кольца")</f>
-        <v>Площадь кругового сектора, кольца</v>
-      </c>
-      <c r="N89" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),688.0)</f>
-        <v>688</v>
-      </c>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
       <c r="O89" s="1"/>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -6024,14 +5478,8 @@
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
-      <c r="M90" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Описанная и вписанная окружность для четырехугольника")</f>
-        <v>Описанная и вписанная окружность для четырехугольника</v>
-      </c>
-      <c r="N90" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),689.0)</f>
-        <v>689</v>
-      </c>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
       <c r="O90" s="1"/>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -6058,14 +5506,8 @@
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
-      <c r="M91" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Секущая, касательная для окружности")</f>
-        <v>Секущая, касательная для окружности</v>
-      </c>
-      <c r="N91" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),690.0)</f>
-        <v>690</v>
-      </c>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
       <c r="O91" s="1"/>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -6092,14 +5534,8 @@
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
-      <c r="M92" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Площадь треугольника через вписанную окружность")</f>
-        <v>Площадь треугольника через вписанную окружность</v>
-      </c>
-      <c r="N92" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),691.0)</f>
-        <v>691</v>
-      </c>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -6126,14 +5562,8 @@
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="M93" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Углы между секущими и хордами в окружности")</f>
-        <v>Углы между секущими и хордами в окружности</v>
-      </c>
-      <c r="N93" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),692.0)</f>
-        <v>692</v>
-      </c>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
       <c r="O93" s="1"/>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -6160,14 +5590,8 @@
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="M94" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Менелая")</f>
-        <v>Теорема Менелая</v>
-      </c>
-      <c r="N94" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),693.0)</f>
-        <v>693</v>
-      </c>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
       <c r="O94" s="1"/>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -6194,14 +5618,8 @@
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-      <c r="M95" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Чевы")</f>
-        <v>Теорема Чевы</v>
-      </c>
-      <c r="N95" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),694.0)</f>
-        <v>694</v>
-      </c>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
       <c r="O95" s="1"/>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -6228,14 +5646,8 @@
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
-      <c r="M96" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема Фалеса")</f>
-        <v>Теорема Фалеса</v>
-      </c>
-      <c r="N96" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),695.0)</f>
-        <v>695</v>
-      </c>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -6262,14 +5674,8 @@
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
-      <c r="M97" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о пропорциональных отрезках")</f>
-        <v>Теорема о пропорциональных отрезках</v>
-      </c>
-      <c r="N97" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),696.0)</f>
-        <v>696</v>
-      </c>
+      <c r="M97" s="1"/>
+      <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -6296,14 +5702,8 @@
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
-      <c r="M98" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Периметр")</f>
-        <v>Периметр</v>
-      </c>
-      <c r="N98" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),697.0)</f>
-        <v>697</v>
-      </c>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
       <c r="O98" s="1"/>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -6330,14 +5730,8 @@
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
-      <c r="M99" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правильный треугольник")</f>
-        <v>Правильный треугольник</v>
-      </c>
-      <c r="N99" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),698.0)</f>
-        <v>698</v>
-      </c>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
       <c r="O99" s="1"/>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -6364,14 +5758,8 @@
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
-      <c r="M100" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Правильный шестиугольник")</f>
-        <v>Правильный шестиугольник</v>
-      </c>
-      <c r="N100" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),699.0)</f>
-        <v>699</v>
-      </c>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
       <c r="O100" s="1"/>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -6398,14 +5786,8 @@
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
-      <c r="M101" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Подобные фигуры")</f>
-        <v>Подобные фигуры</v>
-      </c>
-      <c r="N101" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1300.0)</f>
-        <v>1300</v>
-      </c>
+      <c r="M101" s="1"/>
+      <c r="N101" s="1"/>
       <c r="O101" s="1"/>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -6432,14 +5814,8 @@
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
-      <c r="M102" s="1" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Метод площадей")</f>
-        <v>Метод площадей</v>
-      </c>
-      <c r="N102" s="1">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1301.0)</f>
-        <v>1301</v>
-      </c>
+      <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
       <c r="O102" s="1"/>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>

--- a/umit_files/umit_mat.xlsx
+++ b/umit_files/umit_mat.xlsx
@@ -398,8 +398,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),601.0)</f>
         <v>601</v>
       </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
+      <c r="O2" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Прямоугольная система координат")</f>
+        <v>Прямоугольная система координат</v>
+      </c>
+      <c r="P2" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1601.0)</f>
+        <v>1601</v>
+      </c>
       <c r="Q2" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Аксиомы стереометрии")</f>
         <v>Аксиомы стереометрии</v>
@@ -514,8 +520,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),602.0)</f>
         <v>602</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="O3" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Свойства векторов")</f>
+        <v>Свойства векторов</v>
+      </c>
+      <c r="P3" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1602.0)</f>
+        <v>1602</v>
+      </c>
       <c r="Q3" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Параллельные прямые в пространстве")</f>
         <v>Параллельные прямые в пространстве</v>
@@ -630,8 +642,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),604.0)</f>
         <v>604</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="O4" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Скалярное произведение")</f>
+        <v>Скалярное произведение</v>
+      </c>
+      <c r="P4" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1603.0)</f>
+        <v>1603</v>
+      </c>
       <c r="Q4" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Параллельность прямой и плоскости")</f>
         <v>Параллельность прямой и плоскости</v>
@@ -746,8 +764,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),605.0)</f>
         <v>605</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="O5" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение плоскости в пространстве")</f>
+        <v>Уравнение плоскости в пространстве</v>
+      </c>
+      <c r="P5" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1604.0)</f>
+        <v>1604</v>
+      </c>
       <c r="Q5" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Скрещивающиеся прямые")</f>
         <v>Скрещивающиеся прямые</v>
@@ -862,8 +886,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),606.0)</f>
         <v>606</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="O6" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Уравнение прямой в пространстве")</f>
+        <v>Уравнение прямой в пространстве</v>
+      </c>
+      <c r="P6" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1605.0)</f>
+        <v>1605</v>
+      </c>
       <c r="Q6" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Угол между прямыми")</f>
         <v>Угол между прямыми</v>
@@ -978,8 +1008,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),607.0)</f>
         <v>607</v>
       </c>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="O7" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Угол между прямыми через координаты")</f>
+        <v>Угол между прямыми через координаты</v>
+      </c>
+      <c r="P7" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1606.0)</f>
+        <v>1606</v>
+      </c>
       <c r="Q7" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Параллельные плоскости, свойства")</f>
         <v>Параллельные плоскости, свойства</v>
@@ -1094,8 +1130,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),608.0)</f>
         <v>608</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
+      <c r="O8" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Угол между прямой и плоскостью через координаты")</f>
+        <v>Угол между прямой и плоскостью через координаты</v>
+      </c>
+      <c r="P8" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1607.0)</f>
+        <v>1607</v>
+      </c>
       <c r="Q8" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Перпендикулярность прямых и плоскостей")</f>
         <v>Перпендикулярность прямых и плоскостей</v>
@@ -1204,8 +1246,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),609.0)</f>
         <v>609</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+      <c r="O9" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Угол между плоскостями через координаты")</f>
+        <v>Угол между плоскостями через координаты</v>
+      </c>
+      <c r="P9" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1608.0)</f>
+        <v>1608</v>
+      </c>
       <c r="Q9" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Расстояние от точки до плоскости")</f>
         <v>Расстояние от точки до плоскости</v>
@@ -1314,8 +1362,14 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),610.0)</f>
         <v>610</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
+      <c r="O10" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Расстояние от точки до плоскости через координаты")</f>
+        <v>Расстояние от точки до плоскости через координаты</v>
+      </c>
+      <c r="P10" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1609.0)</f>
+        <v>1609</v>
+      </c>
       <c r="Q10" s="1" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Теорема о трех перпендикулярах")</f>
         <v>Теорема о трех перпендикулярах</v>
@@ -4720,8 +4774,14 @@
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1"/>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
+      <c r="Q56" s="1" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Поверхности второго порядка")</f>
+        <v>Поверхности второго порядка</v>
+      </c>
+      <c r="R56" s="1">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),866.0)</f>
+        <v>866</v>
+      </c>
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
       <c r="U56" s="1"/>
